--- a/UnitySamples/Assets/Configs/SampleConfig.xlsx
+++ b/UnitySamples/Assets/Configs/SampleConfig.xlsx
@@ -1,31 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\BuildShip\ShipDock\UnitySamples\Assets\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BA4AD7-6E5C-4BC3-873F-88DC00294FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+  <si>
+    <t>SampleConfig</t>
+  </si>
   <si>
     <t>mapper</t>
   </si>
@@ -33,101 +25,416 @@
     <t>id</t>
   </si>
   <si>
-    <t>PuzzlesConfig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>sample_config</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>all_answers</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>字谜题库</t>
   </si>
   <si>
     <t>配置id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>puzzles_config</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字谜题库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>question</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>答案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确答案</t>
+  </si>
+  <si>
+    <t>谁是猪？</t>
   </si>
   <si>
     <t>[a,b]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确答案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>all_answers</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>谁是猪？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -135,9 +442,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -146,17 +695,61 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -205,7 +798,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -240,7 +833,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -414,57 +1007,52 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:CO573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+    </row>
+    <row r="2" ht="16.5" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -555,7 +1143,7 @@
       <c r="CN2" s="1"/>
       <c r="CO2" s="1"/>
     </row>
-    <row r="3" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" ht="16.5" spans="1:93">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -650,19 +1238,19 @@
       <c r="CN3" s="1"/>
       <c r="CO3" s="1"/>
     </row>
-    <row r="4" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="1:93">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -753,18 +1341,18 @@
       <c r="CN4" s="1"/>
       <c r="CO4" s="1"/>
     </row>
-    <row r="5" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:93">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -858,16 +1446,16 @@
       <c r="CN5" s="1"/>
       <c r="CO5" s="1"/>
     </row>
-    <row r="6" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:93">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -961,16 +1549,16 @@
       <c r="CN6" s="1"/>
       <c r="CO6" s="1"/>
     </row>
-    <row r="7" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:93">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1064,16 +1652,16 @@
       <c r="CN7" s="1"/>
       <c r="CO7" s="1"/>
     </row>
-    <row r="8" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:93">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1167,16 +1755,16 @@
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
     </row>
-    <row r="9" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:93">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1270,7 +1858,7 @@
       <c r="CN9" s="1"/>
       <c r="CO9" s="1"/>
     </row>
-    <row r="10" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:93">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1365,7 +1953,7 @@
       <c r="CN10" s="1"/>
       <c r="CO10" s="1"/>
     </row>
-    <row r="11" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:93">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1460,7 +2048,7 @@
       <c r="CN11" s="1"/>
       <c r="CO11" s="1"/>
     </row>
-    <row r="12" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:93">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1555,7 +2143,7 @@
       <c r="CN12" s="1"/>
       <c r="CO12" s="1"/>
     </row>
-    <row r="13" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:93">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1650,7 +2238,7 @@
       <c r="CN13" s="1"/>
       <c r="CO13" s="1"/>
     </row>
-    <row r="14" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:93">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1745,7 +2333,7 @@
       <c r="CN14" s="1"/>
       <c r="CO14" s="1"/>
     </row>
-    <row r="15" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:93">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1840,7 +2428,7 @@
       <c r="CN15" s="1"/>
       <c r="CO15" s="1"/>
     </row>
-    <row r="16" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:93">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1935,7 +2523,7 @@
       <c r="CN16" s="1"/>
       <c r="CO16" s="1"/>
     </row>
-    <row r="17" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:93">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2030,7 +2618,7 @@
       <c r="CN17" s="1"/>
       <c r="CO17" s="1"/>
     </row>
-    <row r="18" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:93">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2125,7 +2713,7 @@
       <c r="CN18" s="1"/>
       <c r="CO18" s="1"/>
     </row>
-    <row r="19" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:93">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2220,7 +2808,7 @@
       <c r="CN19" s="1"/>
       <c r="CO19" s="1"/>
     </row>
-    <row r="20" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:93">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2315,7 +2903,7 @@
       <c r="CN20" s="1"/>
       <c r="CO20" s="1"/>
     </row>
-    <row r="21" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:93">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2410,7 +2998,7 @@
       <c r="CN21" s="1"/>
       <c r="CO21" s="1"/>
     </row>
-    <row r="22" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:93">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2505,7 +3093,7 @@
       <c r="CN22" s="1"/>
       <c r="CO22" s="1"/>
     </row>
-    <row r="23" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:93">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2600,7 +3188,7 @@
       <c r="CN23" s="1"/>
       <c r="CO23" s="1"/>
     </row>
-    <row r="24" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:93">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2695,7 +3283,7 @@
       <c r="CN24" s="1"/>
       <c r="CO24" s="1"/>
     </row>
-    <row r="25" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:93">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2790,7 +3378,7 @@
       <c r="CN25" s="1"/>
       <c r="CO25" s="1"/>
     </row>
-    <row r="26" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:93">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2885,7 +3473,7 @@
       <c r="CN26" s="1"/>
       <c r="CO26" s="1"/>
     </row>
-    <row r="27" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="16.5" spans="1:93">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2980,7 +3568,7 @@
       <c r="CN27" s="1"/>
       <c r="CO27" s="1"/>
     </row>
-    <row r="28" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:93">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3075,7 +3663,7 @@
       <c r="CN28" s="1"/>
       <c r="CO28" s="1"/>
     </row>
-    <row r="29" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" ht="16.5" spans="1:93">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3170,7 +3758,7 @@
       <c r="CN29" s="1"/>
       <c r="CO29" s="1"/>
     </row>
-    <row r="30" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="16.5" spans="1:93">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3265,7 +3853,7 @@
       <c r="CN30" s="1"/>
       <c r="CO30" s="1"/>
     </row>
-    <row r="31" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" ht="16.5" spans="1:93">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3360,7 +3948,7 @@
       <c r="CN31" s="1"/>
       <c r="CO31" s="1"/>
     </row>
-    <row r="32" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="16.5" spans="1:93">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3455,7 +4043,7 @@
       <c r="CN32" s="1"/>
       <c r="CO32" s="1"/>
     </row>
-    <row r="33" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="16.5" spans="1:93">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3550,7 +4138,7 @@
       <c r="CN33" s="1"/>
       <c r="CO33" s="1"/>
     </row>
-    <row r="34" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" ht="16.5" spans="1:93">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3645,7 +4233,7 @@
       <c r="CN34" s="1"/>
       <c r="CO34" s="1"/>
     </row>
-    <row r="35" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" ht="16.5" spans="1:93">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3740,7 +4328,7 @@
       <c r="CN35" s="1"/>
       <c r="CO35" s="1"/>
     </row>
-    <row r="36" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" ht="16.5" spans="1:93">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3835,7 +4423,7 @@
       <c r="CN36" s="1"/>
       <c r="CO36" s="1"/>
     </row>
-    <row r="37" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" ht="16.5" spans="1:93">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3930,7 +4518,7 @@
       <c r="CN37" s="1"/>
       <c r="CO37" s="1"/>
     </row>
-    <row r="38" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" ht="16.5" spans="1:93">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4025,7 +4613,7 @@
       <c r="CN38" s="1"/>
       <c r="CO38" s="1"/>
     </row>
-    <row r="39" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" ht="16.5" spans="1:93">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4120,7 +4708,7 @@
       <c r="CN39" s="1"/>
       <c r="CO39" s="1"/>
     </row>
-    <row r="40" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" ht="16.5" spans="1:93">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4215,7 +4803,7 @@
       <c r="CN40" s="1"/>
       <c r="CO40" s="1"/>
     </row>
-    <row r="41" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" ht="16.5" spans="1:93">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4310,7 +4898,7 @@
       <c r="CN41" s="1"/>
       <c r="CO41" s="1"/>
     </row>
-    <row r="42" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" ht="16.5" spans="1:93">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4405,7 +4993,7 @@
       <c r="CN42" s="1"/>
       <c r="CO42" s="1"/>
     </row>
-    <row r="43" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" ht="16.5" spans="1:93">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4500,7 +5088,7 @@
       <c r="CN43" s="1"/>
       <c r="CO43" s="1"/>
     </row>
-    <row r="44" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" ht="16.5" spans="1:93">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4595,7 +5183,7 @@
       <c r="CN44" s="1"/>
       <c r="CO44" s="1"/>
     </row>
-    <row r="45" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" ht="16.5" spans="1:93">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4690,7 +5278,7 @@
       <c r="CN45" s="1"/>
       <c r="CO45" s="1"/>
     </row>
-    <row r="46" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" ht="16.5" spans="1:93">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4785,7 +5373,7 @@
       <c r="CN46" s="1"/>
       <c r="CO46" s="1"/>
     </row>
-    <row r="47" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" ht="16.5" spans="1:93">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4880,7 +5468,7 @@
       <c r="CN47" s="1"/>
       <c r="CO47" s="1"/>
     </row>
-    <row r="48" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" ht="16.5" spans="1:93">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4975,7 +5563,7 @@
       <c r="CN48" s="1"/>
       <c r="CO48" s="1"/>
     </row>
-    <row r="49" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" ht="16.5" spans="1:93">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5070,7 +5658,7 @@
       <c r="CN49" s="1"/>
       <c r="CO49" s="1"/>
     </row>
-    <row r="50" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" ht="16.5" spans="1:93">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5165,7 +5753,7 @@
       <c r="CN50" s="1"/>
       <c r="CO50" s="1"/>
     </row>
-    <row r="51" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" ht="16.5" spans="1:93">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5260,7 +5848,7 @@
       <c r="CN51" s="1"/>
       <c r="CO51" s="1"/>
     </row>
-    <row r="52" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" ht="16.5" spans="1:93">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5355,7 +5943,7 @@
       <c r="CN52" s="1"/>
       <c r="CO52" s="1"/>
     </row>
-    <row r="53" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" ht="16.5" spans="1:93">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5450,7 +6038,7 @@
       <c r="CN53" s="1"/>
       <c r="CO53" s="1"/>
     </row>
-    <row r="54" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" ht="16.5" spans="1:93">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5545,7 +6133,7 @@
       <c r="CN54" s="1"/>
       <c r="CO54" s="1"/>
     </row>
-    <row r="55" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" ht="16.5" spans="1:93">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5640,7 +6228,7 @@
       <c r="CN55" s="1"/>
       <c r="CO55" s="1"/>
     </row>
-    <row r="56" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" ht="16.5" spans="1:93">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5735,7 +6323,7 @@
       <c r="CN56" s="1"/>
       <c r="CO56" s="1"/>
     </row>
-    <row r="57" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" ht="16.5" spans="1:93">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -5830,7 +6418,7 @@
       <c r="CN57" s="1"/>
       <c r="CO57" s="1"/>
     </row>
-    <row r="58" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" ht="16.5" spans="1:93">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5925,7 +6513,7 @@
       <c r="CN58" s="1"/>
       <c r="CO58" s="1"/>
     </row>
-    <row r="59" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" ht="16.5" spans="1:93">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -6020,7 +6608,7 @@
       <c r="CN59" s="1"/>
       <c r="CO59" s="1"/>
     </row>
-    <row r="60" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" ht="16.5" spans="1:93">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -6115,7 +6703,7 @@
       <c r="CN60" s="1"/>
       <c r="CO60" s="1"/>
     </row>
-    <row r="61" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" ht="16.5" spans="1:93">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -6210,7 +6798,7 @@
       <c r="CN61" s="1"/>
       <c r="CO61" s="1"/>
     </row>
-    <row r="62" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" ht="16.5" spans="1:93">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -6305,7 +6893,7 @@
       <c r="CN62" s="1"/>
       <c r="CO62" s="1"/>
     </row>
-    <row r="63" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" ht="16.5" spans="1:93">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -6400,7 +6988,7 @@
       <c r="CN63" s="1"/>
       <c r="CO63" s="1"/>
     </row>
-    <row r="64" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" ht="16.5" spans="1:93">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -6495,7 +7083,7 @@
       <c r="CN64" s="1"/>
       <c r="CO64" s="1"/>
     </row>
-    <row r="65" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" ht="16.5" spans="1:93">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -6590,7 +7178,7 @@
       <c r="CN65" s="1"/>
       <c r="CO65" s="1"/>
     </row>
-    <row r="66" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" ht="16.5" spans="1:93">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -6685,7 +7273,7 @@
       <c r="CN66" s="1"/>
       <c r="CO66" s="1"/>
     </row>
-    <row r="67" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" ht="16.5" spans="1:93">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -6780,7 +7368,7 @@
       <c r="CN67" s="1"/>
       <c r="CO67" s="1"/>
     </row>
-    <row r="68" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" ht="16.5" spans="1:93">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -6875,7 +7463,7 @@
       <c r="CN68" s="1"/>
       <c r="CO68" s="1"/>
     </row>
-    <row r="69" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" ht="16.5" spans="1:93">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -6970,7 +7558,7 @@
       <c r="CN69" s="1"/>
       <c r="CO69" s="1"/>
     </row>
-    <row r="70" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" ht="16.5" spans="1:93">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -7065,7 +7653,7 @@
       <c r="CN70" s="1"/>
       <c r="CO70" s="1"/>
     </row>
-    <row r="71" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" ht="16.5" spans="1:93">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -7160,7 +7748,7 @@
       <c r="CN71" s="1"/>
       <c r="CO71" s="1"/>
     </row>
-    <row r="72" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" ht="16.5" spans="1:93">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -7255,7 +7843,7 @@
       <c r="CN72" s="1"/>
       <c r="CO72" s="1"/>
     </row>
-    <row r="73" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" ht="16.5" spans="1:93">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -7350,7 +7938,7 @@
       <c r="CN73" s="1"/>
       <c r="CO73" s="1"/>
     </row>
-    <row r="74" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" ht="16.5" spans="1:93">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -7445,7 +8033,7 @@
       <c r="CN74" s="1"/>
       <c r="CO74" s="1"/>
     </row>
-    <row r="75" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" ht="16.5" spans="1:93">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -7540,7 +8128,7 @@
       <c r="CN75" s="1"/>
       <c r="CO75" s="1"/>
     </row>
-    <row r="76" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" ht="16.5" spans="1:93">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -7635,7 +8223,7 @@
       <c r="CN76" s="1"/>
       <c r="CO76" s="1"/>
     </row>
-    <row r="77" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" ht="16.5" spans="1:93">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -7730,7 +8318,7 @@
       <c r="CN77" s="1"/>
       <c r="CO77" s="1"/>
     </row>
-    <row r="78" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" ht="16.5" spans="1:93">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -7825,7 +8413,7 @@
       <c r="CN78" s="1"/>
       <c r="CO78" s="1"/>
     </row>
-    <row r="79" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" ht="16.5" spans="1:93">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -7920,7 +8508,7 @@
       <c r="CN79" s="1"/>
       <c r="CO79" s="1"/>
     </row>
-    <row r="80" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" ht="16.5" spans="1:93">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -8015,7 +8603,7 @@
       <c r="CN80" s="1"/>
       <c r="CO80" s="1"/>
     </row>
-    <row r="81" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" ht="16.5" spans="1:93">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -8110,7 +8698,7 @@
       <c r="CN81" s="1"/>
       <c r="CO81" s="1"/>
     </row>
-    <row r="82" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" ht="16.5" spans="1:93">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -8205,7 +8793,7 @@
       <c r="CN82" s="1"/>
       <c r="CO82" s="1"/>
     </row>
-    <row r="83" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" ht="16.5" spans="1:93">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -8300,7 +8888,7 @@
       <c r="CN83" s="1"/>
       <c r="CO83" s="1"/>
     </row>
-    <row r="84" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" ht="16.5" spans="1:93">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -8395,7 +8983,7 @@
       <c r="CN84" s="1"/>
       <c r="CO84" s="1"/>
     </row>
-    <row r="85" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" ht="16.5" spans="1:93">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -8490,7 +9078,7 @@
       <c r="CN85" s="1"/>
       <c r="CO85" s="1"/>
     </row>
-    <row r="86" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" ht="16.5" spans="1:93">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -8585,7 +9173,7 @@
       <c r="CN86" s="1"/>
       <c r="CO86" s="1"/>
     </row>
-    <row r="87" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" ht="16.5" spans="1:93">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -8680,7 +9268,7 @@
       <c r="CN87" s="1"/>
       <c r="CO87" s="1"/>
     </row>
-    <row r="88" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" ht="16.5" spans="1:93">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -8775,7 +9363,7 @@
       <c r="CN88" s="1"/>
       <c r="CO88" s="1"/>
     </row>
-    <row r="89" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" ht="16.5" spans="1:93">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -8870,7 +9458,7 @@
       <c r="CN89" s="1"/>
       <c r="CO89" s="1"/>
     </row>
-    <row r="90" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" ht="16.5" spans="1:93">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -8965,7 +9553,7 @@
       <c r="CN90" s="1"/>
       <c r="CO90" s="1"/>
     </row>
-    <row r="91" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" ht="16.5" spans="1:93">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -9060,7 +9648,7 @@
       <c r="CN91" s="1"/>
       <c r="CO91" s="1"/>
     </row>
-    <row r="92" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" ht="16.5" spans="1:93">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -9155,7 +9743,7 @@
       <c r="CN92" s="1"/>
       <c r="CO92" s="1"/>
     </row>
-    <row r="93" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" ht="16.5" spans="1:93">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -9250,7 +9838,7 @@
       <c r="CN93" s="1"/>
       <c r="CO93" s="1"/>
     </row>
-    <row r="94" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" ht="16.5" spans="1:93">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -9345,7 +9933,7 @@
       <c r="CN94" s="1"/>
       <c r="CO94" s="1"/>
     </row>
-    <row r="95" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" ht="16.5" spans="1:93">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -9440,7 +10028,7 @@
       <c r="CN95" s="1"/>
       <c r="CO95" s="1"/>
     </row>
-    <row r="96" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" ht="16.5" spans="1:93">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -9535,7 +10123,7 @@
       <c r="CN96" s="1"/>
       <c r="CO96" s="1"/>
     </row>
-    <row r="97" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" ht="16.5" spans="1:93">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -9630,7 +10218,7 @@
       <c r="CN97" s="1"/>
       <c r="CO97" s="1"/>
     </row>
-    <row r="98" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" ht="16.5" spans="1:93">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -9725,7 +10313,7 @@
       <c r="CN98" s="1"/>
       <c r="CO98" s="1"/>
     </row>
-    <row r="99" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" ht="16.5" spans="1:93">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -9820,7 +10408,7 @@
       <c r="CN99" s="1"/>
       <c r="CO99" s="1"/>
     </row>
-    <row r="100" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" ht="16.5" spans="1:93">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -9915,7 +10503,7 @@
       <c r="CN100" s="1"/>
       <c r="CO100" s="1"/>
     </row>
-    <row r="101" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" ht="16.5" spans="1:93">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -10010,7 +10598,7 @@
       <c r="CN101" s="1"/>
       <c r="CO101" s="1"/>
     </row>
-    <row r="102" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" ht="16.5" spans="1:93">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -10105,7 +10693,7 @@
       <c r="CN102" s="1"/>
       <c r="CO102" s="1"/>
     </row>
-    <row r="103" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" ht="16.5" spans="1:93">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -10200,7 +10788,7 @@
       <c r="CN103" s="1"/>
       <c r="CO103" s="1"/>
     </row>
-    <row r="104" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" ht="16.5" spans="1:93">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -10295,7 +10883,7 @@
       <c r="CN104" s="1"/>
       <c r="CO104" s="1"/>
     </row>
-    <row r="105" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" ht="16.5" spans="1:93">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -10390,7 +10978,7 @@
       <c r="CN105" s="1"/>
       <c r="CO105" s="1"/>
     </row>
-    <row r="106" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" ht="16.5" spans="1:93">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -10485,7 +11073,7 @@
       <c r="CN106" s="1"/>
       <c r="CO106" s="1"/>
     </row>
-    <row r="107" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" ht="16.5" spans="1:93">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -10580,7 +11168,7 @@
       <c r="CN107" s="1"/>
       <c r="CO107" s="1"/>
     </row>
-    <row r="108" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" ht="16.5" spans="1:93">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -10675,7 +11263,7 @@
       <c r="CN108" s="1"/>
       <c r="CO108" s="1"/>
     </row>
-    <row r="109" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" ht="16.5" spans="1:93">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -10770,7 +11358,7 @@
       <c r="CN109" s="1"/>
       <c r="CO109" s="1"/>
     </row>
-    <row r="110" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" ht="16.5" spans="1:93">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -10865,7 +11453,7 @@
       <c r="CN110" s="1"/>
       <c r="CO110" s="1"/>
     </row>
-    <row r="111" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" ht="16.5" spans="1:93">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -10960,7 +11548,7 @@
       <c r="CN111" s="1"/>
       <c r="CO111" s="1"/>
     </row>
-    <row r="112" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112" ht="16.5" spans="1:93">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -11055,7 +11643,7 @@
       <c r="CN112" s="1"/>
       <c r="CO112" s="1"/>
     </row>
-    <row r="113" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" ht="16.5" spans="1:93">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -11150,7 +11738,7 @@
       <c r="CN113" s="1"/>
       <c r="CO113" s="1"/>
     </row>
-    <row r="114" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" ht="16.5" spans="1:93">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -11245,7 +11833,7 @@
       <c r="CN114" s="1"/>
       <c r="CO114" s="1"/>
     </row>
-    <row r="115" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" ht="16.5" spans="1:93">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -11340,7 +11928,7 @@
       <c r="CN115" s="1"/>
       <c r="CO115" s="1"/>
     </row>
-    <row r="116" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" ht="16.5" spans="1:93">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -11435,7 +12023,7 @@
       <c r="CN116" s="1"/>
       <c r="CO116" s="1"/>
     </row>
-    <row r="117" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" ht="16.5" spans="1:93">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -11530,7 +12118,7 @@
       <c r="CN117" s="1"/>
       <c r="CO117" s="1"/>
     </row>
-    <row r="118" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" ht="16.5" spans="1:93">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -11625,7 +12213,7 @@
       <c r="CN118" s="1"/>
       <c r="CO118" s="1"/>
     </row>
-    <row r="119" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119" ht="16.5" spans="1:93">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -11720,7 +12308,7 @@
       <c r="CN119" s="1"/>
       <c r="CO119" s="1"/>
     </row>
-    <row r="120" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" ht="16.5" spans="1:93">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -11815,7 +12403,7 @@
       <c r="CN120" s="1"/>
       <c r="CO120" s="1"/>
     </row>
-    <row r="121" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" ht="16.5" spans="1:93">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -11910,7 +12498,7 @@
       <c r="CN121" s="1"/>
       <c r="CO121" s="1"/>
     </row>
-    <row r="122" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="122" ht="16.5" spans="1:93">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -12005,7 +12593,7 @@
       <c r="CN122" s="1"/>
       <c r="CO122" s="1"/>
     </row>
-    <row r="123" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123" ht="16.5" spans="1:93">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -12100,7 +12688,7 @@
       <c r="CN123" s="1"/>
       <c r="CO123" s="1"/>
     </row>
-    <row r="124" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" ht="16.5" spans="1:93">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -12195,7 +12783,7 @@
       <c r="CN124" s="1"/>
       <c r="CO124" s="1"/>
     </row>
-    <row r="125" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125" ht="16.5" spans="1:93">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -12290,7 +12878,7 @@
       <c r="CN125" s="1"/>
       <c r="CO125" s="1"/>
     </row>
-    <row r="126" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="126" ht="16.5" spans="1:93">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -12385,7 +12973,7 @@
       <c r="CN126" s="1"/>
       <c r="CO126" s="1"/>
     </row>
-    <row r="127" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="127" ht="16.5" spans="1:93">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -12480,7 +13068,7 @@
       <c r="CN127" s="1"/>
       <c r="CO127" s="1"/>
     </row>
-    <row r="128" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="128" ht="16.5" spans="1:93">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -12575,7 +13163,7 @@
       <c r="CN128" s="1"/>
       <c r="CO128" s="1"/>
     </row>
-    <row r="129" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" ht="16.5" spans="1:93">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -12670,7 +13258,7 @@
       <c r="CN129" s="1"/>
       <c r="CO129" s="1"/>
     </row>
-    <row r="130" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130" ht="16.5" spans="1:93">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -12765,7 +13353,7 @@
       <c r="CN130" s="1"/>
       <c r="CO130" s="1"/>
     </row>
-    <row r="131" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="131" ht="16.5" spans="1:93">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -12860,7 +13448,7 @@
       <c r="CN131" s="1"/>
       <c r="CO131" s="1"/>
     </row>
-    <row r="132" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="132" ht="16.5" spans="1:93">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -12955,7 +13543,7 @@
       <c r="CN132" s="1"/>
       <c r="CO132" s="1"/>
     </row>
-    <row r="133" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="133" ht="16.5" spans="1:93">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -13050,7 +13638,7 @@
       <c r="CN133" s="1"/>
       <c r="CO133" s="1"/>
     </row>
-    <row r="134" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="134" ht="16.5" spans="1:93">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -13145,7 +13733,7 @@
       <c r="CN134" s="1"/>
       <c r="CO134" s="1"/>
     </row>
-    <row r="135" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="135" ht="16.5" spans="1:93">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -13240,7 +13828,7 @@
       <c r="CN135" s="1"/>
       <c r="CO135" s="1"/>
     </row>
-    <row r="136" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="136" ht="16.5" spans="1:93">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -13335,7 +13923,7 @@
       <c r="CN136" s="1"/>
       <c r="CO136" s="1"/>
     </row>
-    <row r="137" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="137" ht="16.5" spans="1:93">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -13430,7 +14018,7 @@
       <c r="CN137" s="1"/>
       <c r="CO137" s="1"/>
     </row>
-    <row r="138" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="138" ht="16.5" spans="1:93">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -13525,7 +14113,7 @@
       <c r="CN138" s="1"/>
       <c r="CO138" s="1"/>
     </row>
-    <row r="139" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="139" ht="16.5" spans="1:93">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -13620,7 +14208,7 @@
       <c r="CN139" s="1"/>
       <c r="CO139" s="1"/>
     </row>
-    <row r="140" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="140" ht="16.5" spans="1:93">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -13715,7 +14303,7 @@
       <c r="CN140" s="1"/>
       <c r="CO140" s="1"/>
     </row>
-    <row r="141" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="141" ht="16.5" spans="1:93">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -13810,7 +14398,7 @@
       <c r="CN141" s="1"/>
       <c r="CO141" s="1"/>
     </row>
-    <row r="142" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="142" ht="16.5" spans="1:93">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -13905,7 +14493,7 @@
       <c r="CN142" s="1"/>
       <c r="CO142" s="1"/>
     </row>
-    <row r="143" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="143" ht="16.5" spans="1:93">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -14000,7 +14588,7 @@
       <c r="CN143" s="1"/>
       <c r="CO143" s="1"/>
     </row>
-    <row r="144" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="144" ht="16.5" spans="1:93">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -14095,7 +14683,7 @@
       <c r="CN144" s="1"/>
       <c r="CO144" s="1"/>
     </row>
-    <row r="145" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="145" ht="16.5" spans="1:93">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -14190,7 +14778,7 @@
       <c r="CN145" s="1"/>
       <c r="CO145" s="1"/>
     </row>
-    <row r="146" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" ht="16.5" spans="1:93">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -14285,7 +14873,7 @@
       <c r="CN146" s="1"/>
       <c r="CO146" s="1"/>
     </row>
-    <row r="147" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147" ht="16.5" spans="1:93">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -14380,7 +14968,7 @@
       <c r="CN147" s="1"/>
       <c r="CO147" s="1"/>
     </row>
-    <row r="148" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" ht="16.5" spans="1:93">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -14475,7 +15063,7 @@
       <c r="CN148" s="1"/>
       <c r="CO148" s="1"/>
     </row>
-    <row r="149" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" ht="16.5" spans="1:93">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -14570,7 +15158,7 @@
       <c r="CN149" s="1"/>
       <c r="CO149" s="1"/>
     </row>
-    <row r="150" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150" ht="16.5" spans="1:93">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -14665,7 +15253,7 @@
       <c r="CN150" s="1"/>
       <c r="CO150" s="1"/>
     </row>
-    <row r="151" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" ht="16.5" spans="1:93">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -14760,7 +15348,7 @@
       <c r="CN151" s="1"/>
       <c r="CO151" s="1"/>
     </row>
-    <row r="152" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152" ht="16.5" spans="1:93">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -14855,7 +15443,7 @@
       <c r="CN152" s="1"/>
       <c r="CO152" s="1"/>
     </row>
-    <row r="153" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" ht="16.5" spans="1:93">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -14950,7 +15538,7 @@
       <c r="CN153" s="1"/>
       <c r="CO153" s="1"/>
     </row>
-    <row r="154" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" ht="16.5" spans="1:93">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -15045,7 +15633,7 @@
       <c r="CN154" s="1"/>
       <c r="CO154" s="1"/>
     </row>
-    <row r="155" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="155" ht="16.5" spans="1:93">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -15140,7 +15728,7 @@
       <c r="CN155" s="1"/>
       <c r="CO155" s="1"/>
     </row>
-    <row r="156" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="156" ht="16.5" spans="1:93">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -15235,7 +15823,7 @@
       <c r="CN156" s="1"/>
       <c r="CO156" s="1"/>
     </row>
-    <row r="157" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157" ht="16.5" spans="1:93">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -15330,7 +15918,7 @@
       <c r="CN157" s="1"/>
       <c r="CO157" s="1"/>
     </row>
-    <row r="158" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="158" ht="16.5" spans="1:93">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -15425,7 +16013,7 @@
       <c r="CN158" s="1"/>
       <c r="CO158" s="1"/>
     </row>
-    <row r="159" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="159" ht="16.5" spans="1:93">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -15520,7 +16108,7 @@
       <c r="CN159" s="1"/>
       <c r="CO159" s="1"/>
     </row>
-    <row r="160" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="160" ht="16.5" spans="1:93">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -15615,7 +16203,7 @@
       <c r="CN160" s="1"/>
       <c r="CO160" s="1"/>
     </row>
-    <row r="161" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="161" ht="16.5" spans="1:93">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -15710,7 +16298,7 @@
       <c r="CN161" s="1"/>
       <c r="CO161" s="1"/>
     </row>
-    <row r="162" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="162" ht="16.5" spans="1:93">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -15805,7 +16393,7 @@
       <c r="CN162" s="1"/>
       <c r="CO162" s="1"/>
     </row>
-    <row r="163" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="163" ht="16.5" spans="1:93">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -15900,7 +16488,7 @@
       <c r="CN163" s="1"/>
       <c r="CO163" s="1"/>
     </row>
-    <row r="164" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="164" ht="16.5" spans="1:93">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -15995,7 +16583,7 @@
       <c r="CN164" s="1"/>
       <c r="CO164" s="1"/>
     </row>
-    <row r="165" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="165" ht="16.5" spans="1:93">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -16090,7 +16678,7 @@
       <c r="CN165" s="1"/>
       <c r="CO165" s="1"/>
     </row>
-    <row r="166" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="166" ht="16.5" spans="1:93">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -16185,7 +16773,7 @@
       <c r="CN166" s="1"/>
       <c r="CO166" s="1"/>
     </row>
-    <row r="167" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="167" ht="16.5" spans="1:93">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -16280,7 +16868,7 @@
       <c r="CN167" s="1"/>
       <c r="CO167" s="1"/>
     </row>
-    <row r="168" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="168" ht="16.5" spans="1:93">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -16375,7 +16963,7 @@
       <c r="CN168" s="1"/>
       <c r="CO168" s="1"/>
     </row>
-    <row r="169" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="169" ht="16.5" spans="1:93">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -16470,7 +17058,7 @@
       <c r="CN169" s="1"/>
       <c r="CO169" s="1"/>
     </row>
-    <row r="170" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="170" ht="16.5" spans="1:93">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -16565,7 +17153,7 @@
       <c r="CN170" s="1"/>
       <c r="CO170" s="1"/>
     </row>
-    <row r="171" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="171" ht="16.5" spans="1:93">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -16660,7 +17248,7 @@
       <c r="CN171" s="1"/>
       <c r="CO171" s="1"/>
     </row>
-    <row r="172" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="172" ht="16.5" spans="1:93">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -16755,7 +17343,7 @@
       <c r="CN172" s="1"/>
       <c r="CO172" s="1"/>
     </row>
-    <row r="173" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="173" ht="16.5" spans="1:93">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -16850,7 +17438,7 @@
       <c r="CN173" s="1"/>
       <c r="CO173" s="1"/>
     </row>
-    <row r="174" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="174" ht="16.5" spans="1:93">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -16945,7 +17533,7 @@
       <c r="CN174" s="1"/>
       <c r="CO174" s="1"/>
     </row>
-    <row r="175" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="175" ht="16.5" spans="1:93">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -17040,7 +17628,7 @@
       <c r="CN175" s="1"/>
       <c r="CO175" s="1"/>
     </row>
-    <row r="176" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="176" ht="16.5" spans="1:93">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -17135,7 +17723,7 @@
       <c r="CN176" s="1"/>
       <c r="CO176" s="1"/>
     </row>
-    <row r="177" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="177" ht="16.5" spans="1:93">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -17230,7 +17818,7 @@
       <c r="CN177" s="1"/>
       <c r="CO177" s="1"/>
     </row>
-    <row r="178" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="178" ht="16.5" spans="1:93">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -17325,7 +17913,7 @@
       <c r="CN178" s="1"/>
       <c r="CO178" s="1"/>
     </row>
-    <row r="179" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="179" ht="16.5" spans="1:93">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -17420,7 +18008,7 @@
       <c r="CN179" s="1"/>
       <c r="CO179" s="1"/>
     </row>
-    <row r="180" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="180" ht="16.5" spans="1:93">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -17515,7 +18103,7 @@
       <c r="CN180" s="1"/>
       <c r="CO180" s="1"/>
     </row>
-    <row r="181" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="181" ht="16.5" spans="1:93">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -17610,7 +18198,7 @@
       <c r="CN181" s="1"/>
       <c r="CO181" s="1"/>
     </row>
-    <row r="182" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="182" ht="16.5" spans="1:93">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -17705,7 +18293,7 @@
       <c r="CN182" s="1"/>
       <c r="CO182" s="1"/>
     </row>
-    <row r="183" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="183" ht="16.5" spans="1:93">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -17800,7 +18388,7 @@
       <c r="CN183" s="1"/>
       <c r="CO183" s="1"/>
     </row>
-    <row r="184" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="184" ht="16.5" spans="1:93">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -17895,7 +18483,7 @@
       <c r="CN184" s="1"/>
       <c r="CO184" s="1"/>
     </row>
-    <row r="185" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="185" ht="16.5" spans="1:93">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -17990,7 +18578,7 @@
       <c r="CN185" s="1"/>
       <c r="CO185" s="1"/>
     </row>
-    <row r="186" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="186" ht="16.5" spans="1:93">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -18085,7 +18673,7 @@
       <c r="CN186" s="1"/>
       <c r="CO186" s="1"/>
     </row>
-    <row r="187" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="187" ht="16.5" spans="1:93">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -18180,7 +18768,7 @@
       <c r="CN187" s="1"/>
       <c r="CO187" s="1"/>
     </row>
-    <row r="188" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="188" ht="16.5" spans="1:93">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -18275,7 +18863,7 @@
       <c r="CN188" s="1"/>
       <c r="CO188" s="1"/>
     </row>
-    <row r="189" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="189" ht="16.5" spans="1:93">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -18370,7 +18958,7 @@
       <c r="CN189" s="1"/>
       <c r="CO189" s="1"/>
     </row>
-    <row r="190" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="190" ht="16.5" spans="1:93">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -18465,7 +19053,7 @@
       <c r="CN190" s="1"/>
       <c r="CO190" s="1"/>
     </row>
-    <row r="191" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="191" ht="16.5" spans="1:93">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -18560,7 +19148,7 @@
       <c r="CN191" s="1"/>
       <c r="CO191" s="1"/>
     </row>
-    <row r="192" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="192" ht="16.5" spans="1:93">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -18655,7 +19243,7 @@
       <c r="CN192" s="1"/>
       <c r="CO192" s="1"/>
     </row>
-    <row r="193" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="193" ht="16.5" spans="1:93">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -18750,7 +19338,7 @@
       <c r="CN193" s="1"/>
       <c r="CO193" s="1"/>
     </row>
-    <row r="194" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="194" ht="16.5" spans="1:93">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -18845,7 +19433,7 @@
       <c r="CN194" s="1"/>
       <c r="CO194" s="1"/>
     </row>
-    <row r="195" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="195" ht="16.5" spans="1:93">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -18940,7 +19528,7 @@
       <c r="CN195" s="1"/>
       <c r="CO195" s="1"/>
     </row>
-    <row r="196" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="196" ht="16.5" spans="1:93">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -19035,7 +19623,7 @@
       <c r="CN196" s="1"/>
       <c r="CO196" s="1"/>
     </row>
-    <row r="197" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="197" ht="16.5" spans="1:93">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -19130,7 +19718,7 @@
       <c r="CN197" s="1"/>
       <c r="CO197" s="1"/>
     </row>
-    <row r="198" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="198" ht="16.5" spans="1:93">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -19225,7 +19813,7 @@
       <c r="CN198" s="1"/>
       <c r="CO198" s="1"/>
     </row>
-    <row r="199" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="199" ht="16.5" spans="1:93">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -19320,7 +19908,7 @@
       <c r="CN199" s="1"/>
       <c r="CO199" s="1"/>
     </row>
-    <row r="200" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="200" ht="16.5" spans="1:93">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -19415,7 +20003,7 @@
       <c r="CN200" s="1"/>
       <c r="CO200" s="1"/>
     </row>
-    <row r="201" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="201" ht="16.5" spans="1:93">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -19510,7 +20098,7 @@
       <c r="CN201" s="1"/>
       <c r="CO201" s="1"/>
     </row>
-    <row r="202" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="202" ht="16.5" spans="1:93">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -19605,7 +20193,7 @@
       <c r="CN202" s="1"/>
       <c r="CO202" s="1"/>
     </row>
-    <row r="203" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="203" ht="16.5" spans="1:93">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -19700,7 +20288,7 @@
       <c r="CN203" s="1"/>
       <c r="CO203" s="1"/>
     </row>
-    <row r="204" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="204" ht="16.5" spans="1:93">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -19795,7 +20383,7 @@
       <c r="CN204" s="1"/>
       <c r="CO204" s="1"/>
     </row>
-    <row r="205" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="205" ht="16.5" spans="1:93">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -19890,7 +20478,7 @@
       <c r="CN205" s="1"/>
       <c r="CO205" s="1"/>
     </row>
-    <row r="206" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="206" ht="16.5" spans="1:93">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -19985,7 +20573,7 @@
       <c r="CN206" s="1"/>
       <c r="CO206" s="1"/>
     </row>
-    <row r="207" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="207" ht="16.5" spans="1:93">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -20080,7 +20668,7 @@
       <c r="CN207" s="1"/>
       <c r="CO207" s="1"/>
     </row>
-    <row r="208" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="208" ht="16.5" spans="1:93">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -20175,7 +20763,7 @@
       <c r="CN208" s="1"/>
       <c r="CO208" s="1"/>
     </row>
-    <row r="209" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="209" ht="16.5" spans="1:93">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -20270,7 +20858,7 @@
       <c r="CN209" s="1"/>
       <c r="CO209" s="1"/>
     </row>
-    <row r="210" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="210" ht="16.5" spans="1:93">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -20365,7 +20953,7 @@
       <c r="CN210" s="1"/>
       <c r="CO210" s="1"/>
     </row>
-    <row r="211" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="211" ht="16.5" spans="1:93">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -20460,7 +21048,7 @@
       <c r="CN211" s="1"/>
       <c r="CO211" s="1"/>
     </row>
-    <row r="212" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="212" ht="16.5" spans="1:93">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -20555,7 +21143,7 @@
       <c r="CN212" s="1"/>
       <c r="CO212" s="1"/>
     </row>
-    <row r="213" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="213" ht="16.5" spans="1:93">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -20650,7 +21238,7 @@
       <c r="CN213" s="1"/>
       <c r="CO213" s="1"/>
     </row>
-    <row r="214" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="214" ht="16.5" spans="1:93">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -20745,7 +21333,7 @@
       <c r="CN214" s="1"/>
       <c r="CO214" s="1"/>
     </row>
-    <row r="215" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="215" ht="16.5" spans="1:93">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -20840,7 +21428,7 @@
       <c r="CN215" s="1"/>
       <c r="CO215" s="1"/>
     </row>
-    <row r="216" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="216" ht="16.5" spans="1:93">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -20935,7 +21523,7 @@
       <c r="CN216" s="1"/>
       <c r="CO216" s="1"/>
     </row>
-    <row r="217" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="217" ht="16.5" spans="1:93">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -21030,7 +21618,7 @@
       <c r="CN217" s="1"/>
       <c r="CO217" s="1"/>
     </row>
-    <row r="218" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="218" ht="16.5" spans="1:93">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -21125,7 +21713,7 @@
       <c r="CN218" s="1"/>
       <c r="CO218" s="1"/>
     </row>
-    <row r="219" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="219" ht="16.5" spans="1:93">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -21220,7 +21808,7 @@
       <c r="CN219" s="1"/>
       <c r="CO219" s="1"/>
     </row>
-    <row r="220" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="220" ht="16.5" spans="1:93">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -21315,7 +21903,7 @@
       <c r="CN220" s="1"/>
       <c r="CO220" s="1"/>
     </row>
-    <row r="221" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="221" ht="16.5" spans="1:93">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -21410,7 +21998,7 @@
       <c r="CN221" s="1"/>
       <c r="CO221" s="1"/>
     </row>
-    <row r="222" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="222" ht="16.5" spans="1:93">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -21505,7 +22093,7 @@
       <c r="CN222" s="1"/>
       <c r="CO222" s="1"/>
     </row>
-    <row r="223" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="223" ht="16.5" spans="1:93">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -21600,7 +22188,7 @@
       <c r="CN223" s="1"/>
       <c r="CO223" s="1"/>
     </row>
-    <row r="224" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="224" ht="16.5" spans="1:93">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -21695,7 +22283,7 @@
       <c r="CN224" s="1"/>
       <c r="CO224" s="1"/>
     </row>
-    <row r="225" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="225" ht="16.5" spans="1:93">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -21790,7 +22378,7 @@
       <c r="CN225" s="1"/>
       <c r="CO225" s="1"/>
     </row>
-    <row r="226" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="226" ht="16.5" spans="1:93">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -21885,7 +22473,7 @@
       <c r="CN226" s="1"/>
       <c r="CO226" s="1"/>
     </row>
-    <row r="227" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="227" ht="16.5" spans="1:93">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -21980,7 +22568,7 @@
       <c r="CN227" s="1"/>
       <c r="CO227" s="1"/>
     </row>
-    <row r="228" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="228" ht="16.5" spans="1:93">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -22075,7 +22663,7 @@
       <c r="CN228" s="1"/>
       <c r="CO228" s="1"/>
     </row>
-    <row r="229" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="229" ht="16.5" spans="1:93">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -22170,7 +22758,7 @@
       <c r="CN229" s="1"/>
       <c r="CO229" s="1"/>
     </row>
-    <row r="230" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="230" ht="16.5" spans="1:93">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -22265,7 +22853,7 @@
       <c r="CN230" s="1"/>
       <c r="CO230" s="1"/>
     </row>
-    <row r="231" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="231" ht="16.5" spans="1:93">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -22360,7 +22948,7 @@
       <c r="CN231" s="1"/>
       <c r="CO231" s="1"/>
     </row>
-    <row r="232" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="232" ht="16.5" spans="1:93">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -22455,7 +23043,7 @@
       <c r="CN232" s="1"/>
       <c r="CO232" s="1"/>
     </row>
-    <row r="233" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="233" ht="16.5" spans="1:93">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -22550,7 +23138,7 @@
       <c r="CN233" s="1"/>
       <c r="CO233" s="1"/>
     </row>
-    <row r="234" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="234" ht="16.5" spans="1:93">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -22645,7 +23233,7 @@
       <c r="CN234" s="1"/>
       <c r="CO234" s="1"/>
     </row>
-    <row r="235" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="235" ht="16.5" spans="1:93">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -22740,7 +23328,7 @@
       <c r="CN235" s="1"/>
       <c r="CO235" s="1"/>
     </row>
-    <row r="236" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="236" ht="16.5" spans="1:93">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -22835,7 +23423,7 @@
       <c r="CN236" s="1"/>
       <c r="CO236" s="1"/>
     </row>
-    <row r="237" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="237" ht="16.5" spans="1:93">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -22930,7 +23518,7 @@
       <c r="CN237" s="1"/>
       <c r="CO237" s="1"/>
     </row>
-    <row r="238" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="238" ht="16.5" spans="1:93">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -23025,7 +23613,7 @@
       <c r="CN238" s="1"/>
       <c r="CO238" s="1"/>
     </row>
-    <row r="239" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="239" ht="16.5" spans="1:93">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -23120,7 +23708,7 @@
       <c r="CN239" s="1"/>
       <c r="CO239" s="1"/>
     </row>
-    <row r="240" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="240" ht="16.5" spans="1:93">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -23215,7 +23803,7 @@
       <c r="CN240" s="1"/>
       <c r="CO240" s="1"/>
     </row>
-    <row r="241" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="241" ht="16.5" spans="1:93">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -23310,7 +23898,7 @@
       <c r="CN241" s="1"/>
       <c r="CO241" s="1"/>
     </row>
-    <row r="242" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="242" ht="16.5" spans="1:93">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -23405,7 +23993,7 @@
       <c r="CN242" s="1"/>
       <c r="CO242" s="1"/>
     </row>
-    <row r="243" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="243" ht="16.5" spans="1:93">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -23500,7 +24088,7 @@
       <c r="CN243" s="1"/>
       <c r="CO243" s="1"/>
     </row>
-    <row r="244" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="244" ht="16.5" spans="1:93">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -23595,7 +24183,7 @@
       <c r="CN244" s="1"/>
       <c r="CO244" s="1"/>
     </row>
-    <row r="245" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="245" ht="16.5" spans="1:93">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -23690,7 +24278,7 @@
       <c r="CN245" s="1"/>
       <c r="CO245" s="1"/>
     </row>
-    <row r="246" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="246" ht="16.5" spans="1:93">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -23785,7 +24373,7 @@
       <c r="CN246" s="1"/>
       <c r="CO246" s="1"/>
     </row>
-    <row r="247" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="247" ht="16.5" spans="1:93">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -23880,7 +24468,7 @@
       <c r="CN247" s="1"/>
       <c r="CO247" s="1"/>
     </row>
-    <row r="248" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="248" ht="16.5" spans="1:93">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -23975,7 +24563,7 @@
       <c r="CN248" s="1"/>
       <c r="CO248" s="1"/>
     </row>
-    <row r="249" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="249" ht="16.5" spans="1:93">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -24070,7 +24658,7 @@
       <c r="CN249" s="1"/>
       <c r="CO249" s="1"/>
     </row>
-    <row r="250" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="250" ht="16.5" spans="1:93">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -24165,7 +24753,7 @@
       <c r="CN250" s="1"/>
       <c r="CO250" s="1"/>
     </row>
-    <row r="251" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="251" ht="16.5" spans="1:93">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -24260,7 +24848,7 @@
       <c r="CN251" s="1"/>
       <c r="CO251" s="1"/>
     </row>
-    <row r="252" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="252" ht="16.5" spans="1:93">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -24355,7 +24943,7 @@
       <c r="CN252" s="1"/>
       <c r="CO252" s="1"/>
     </row>
-    <row r="253" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="253" ht="16.5" spans="1:93">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -24450,7 +25038,7 @@
       <c r="CN253" s="1"/>
       <c r="CO253" s="1"/>
     </row>
-    <row r="254" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="254" ht="16.5" spans="1:93">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -24545,7 +25133,7 @@
       <c r="CN254" s="1"/>
       <c r="CO254" s="1"/>
     </row>
-    <row r="255" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="255" ht="16.5" spans="1:93">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -24640,7 +25228,7 @@
       <c r="CN255" s="1"/>
       <c r="CO255" s="1"/>
     </row>
-    <row r="256" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="256" ht="16.5" spans="1:93">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -24735,7 +25323,7 @@
       <c r="CN256" s="1"/>
       <c r="CO256" s="1"/>
     </row>
-    <row r="257" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="257" ht="16.5" spans="1:93">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -24830,7 +25418,7 @@
       <c r="CN257" s="1"/>
       <c r="CO257" s="1"/>
     </row>
-    <row r="258" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="258" ht="16.5" spans="1:93">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -24925,7 +25513,7 @@
       <c r="CN258" s="1"/>
       <c r="CO258" s="1"/>
     </row>
-    <row r="259" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="259" ht="16.5" spans="1:93">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -25020,7 +25608,7 @@
       <c r="CN259" s="1"/>
       <c r="CO259" s="1"/>
     </row>
-    <row r="260" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="260" ht="16.5" spans="1:93">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -25115,7 +25703,7 @@
       <c r="CN260" s="1"/>
       <c r="CO260" s="1"/>
     </row>
-    <row r="261" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="261" ht="16.5" spans="1:93">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -25210,7 +25798,7 @@
       <c r="CN261" s="1"/>
       <c r="CO261" s="1"/>
     </row>
-    <row r="262" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="262" ht="16.5" spans="1:93">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -25305,7 +25893,7 @@
       <c r="CN262" s="1"/>
       <c r="CO262" s="1"/>
     </row>
-    <row r="263" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="263" ht="16.5" spans="1:93">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -25400,7 +25988,7 @@
       <c r="CN263" s="1"/>
       <c r="CO263" s="1"/>
     </row>
-    <row r="264" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="264" ht="16.5" spans="1:93">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -25495,7 +26083,7 @@
       <c r="CN264" s="1"/>
       <c r="CO264" s="1"/>
     </row>
-    <row r="265" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="265" ht="16.5" spans="1:93">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -25590,7 +26178,7 @@
       <c r="CN265" s="1"/>
       <c r="CO265" s="1"/>
     </row>
-    <row r="266" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="266" ht="16.5" spans="1:93">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -25685,7 +26273,7 @@
       <c r="CN266" s="1"/>
       <c r="CO266" s="1"/>
     </row>
-    <row r="267" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="267" ht="16.5" spans="1:93">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -25780,7 +26368,7 @@
       <c r="CN267" s="1"/>
       <c r="CO267" s="1"/>
     </row>
-    <row r="268" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="268" ht="16.5" spans="1:93">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -25875,7 +26463,7 @@
       <c r="CN268" s="1"/>
       <c r="CO268" s="1"/>
     </row>
-    <row r="269" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="269" ht="16.5" spans="1:93">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -25970,7 +26558,7 @@
       <c r="CN269" s="1"/>
       <c r="CO269" s="1"/>
     </row>
-    <row r="270" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="270" ht="16.5" spans="1:93">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -26065,7 +26653,7 @@
       <c r="CN270" s="1"/>
       <c r="CO270" s="1"/>
     </row>
-    <row r="271" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="271" ht="16.5" spans="1:93">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -26160,7 +26748,7 @@
       <c r="CN271" s="1"/>
       <c r="CO271" s="1"/>
     </row>
-    <row r="272" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="272" ht="16.5" spans="1:93">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -26255,7 +26843,7 @@
       <c r="CN272" s="1"/>
       <c r="CO272" s="1"/>
     </row>
-    <row r="273" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="273" ht="16.5" spans="1:93">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -26350,7 +26938,7 @@
       <c r="CN273" s="1"/>
       <c r="CO273" s="1"/>
     </row>
-    <row r="274" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="274" ht="16.5" spans="1:93">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -26445,7 +27033,7 @@
       <c r="CN274" s="1"/>
       <c r="CO274" s="1"/>
     </row>
-    <row r="275" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="275" ht="16.5" spans="1:93">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -26540,7 +27128,7 @@
       <c r="CN275" s="1"/>
       <c r="CO275" s="1"/>
     </row>
-    <row r="276" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="276" ht="16.5" spans="1:93">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -26635,7 +27223,7 @@
       <c r="CN276" s="1"/>
       <c r="CO276" s="1"/>
     </row>
-    <row r="277" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="277" ht="16.5" spans="1:93">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -26730,7 +27318,7 @@
       <c r="CN277" s="1"/>
       <c r="CO277" s="1"/>
     </row>
-    <row r="278" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="278" ht="16.5" spans="1:93">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -26825,7 +27413,7 @@
       <c r="CN278" s="1"/>
       <c r="CO278" s="1"/>
     </row>
-    <row r="279" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="279" ht="16.5" spans="1:93">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -26920,7 +27508,7 @@
       <c r="CN279" s="1"/>
       <c r="CO279" s="1"/>
     </row>
-    <row r="280" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="280" ht="16.5" spans="1:93">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -27015,7 +27603,7 @@
       <c r="CN280" s="1"/>
       <c r="CO280" s="1"/>
     </row>
-    <row r="281" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="281" ht="16.5" spans="1:93">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -27110,7 +27698,7 @@
       <c r="CN281" s="1"/>
       <c r="CO281" s="1"/>
     </row>
-    <row r="282" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="282" ht="16.5" spans="1:93">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -27205,7 +27793,7 @@
       <c r="CN282" s="1"/>
       <c r="CO282" s="1"/>
     </row>
-    <row r="283" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="283" ht="16.5" spans="1:93">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -27300,7 +27888,7 @@
       <c r="CN283" s="1"/>
       <c r="CO283" s="1"/>
     </row>
-    <row r="284" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="284" ht="16.5" spans="1:93">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -27395,7 +27983,7 @@
       <c r="CN284" s="1"/>
       <c r="CO284" s="1"/>
     </row>
-    <row r="285" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="285" ht="16.5" spans="1:93">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -27490,7 +28078,7 @@
       <c r="CN285" s="1"/>
       <c r="CO285" s="1"/>
     </row>
-    <row r="286" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="286" ht="16.5" spans="1:93">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -27585,7 +28173,7 @@
       <c r="CN286" s="1"/>
       <c r="CO286" s="1"/>
     </row>
-    <row r="287" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="287" ht="16.5" spans="1:93">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -27680,7 +28268,7 @@
       <c r="CN287" s="1"/>
       <c r="CO287" s="1"/>
     </row>
-    <row r="288" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="288" ht="16.5" spans="1:93">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -27775,7 +28363,7 @@
       <c r="CN288" s="1"/>
       <c r="CO288" s="1"/>
     </row>
-    <row r="289" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="289" ht="16.5" spans="1:93">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -27870,7 +28458,7 @@
       <c r="CN289" s="1"/>
       <c r="CO289" s="1"/>
     </row>
-    <row r="290" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="290" ht="16.5" spans="1:93">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -27965,7 +28553,7 @@
       <c r="CN290" s="1"/>
       <c r="CO290" s="1"/>
     </row>
-    <row r="291" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="291" ht="16.5" spans="1:93">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -28060,7 +28648,7 @@
       <c r="CN291" s="1"/>
       <c r="CO291" s="1"/>
     </row>
-    <row r="292" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="292" ht="16.5" spans="1:93">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -28155,7 +28743,7 @@
       <c r="CN292" s="1"/>
       <c r="CO292" s="1"/>
     </row>
-    <row r="293" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="293" ht="16.5" spans="1:93">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -28250,7 +28838,7 @@
       <c r="CN293" s="1"/>
       <c r="CO293" s="1"/>
     </row>
-    <row r="294" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="294" ht="16.5" spans="1:93">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -28345,7 +28933,7 @@
       <c r="CN294" s="1"/>
       <c r="CO294" s="1"/>
     </row>
-    <row r="295" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="295" ht="16.5" spans="1:93">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -28440,7 +29028,7 @@
       <c r="CN295" s="1"/>
       <c r="CO295" s="1"/>
     </row>
-    <row r="296" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="296" ht="16.5" spans="1:93">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -28535,7 +29123,7 @@
       <c r="CN296" s="1"/>
       <c r="CO296" s="1"/>
     </row>
-    <row r="297" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="297" ht="16.5" spans="1:93">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -28630,7 +29218,7 @@
       <c r="CN297" s="1"/>
       <c r="CO297" s="1"/>
     </row>
-    <row r="298" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="298" ht="16.5" spans="1:93">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -28725,7 +29313,7 @@
       <c r="CN298" s="1"/>
       <c r="CO298" s="1"/>
     </row>
-    <row r="299" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="299" ht="16.5" spans="1:93">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -28820,7 +29408,7 @@
       <c r="CN299" s="1"/>
       <c r="CO299" s="1"/>
     </row>
-    <row r="300" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="300" ht="16.5" spans="1:93">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -28915,7 +29503,7 @@
       <c r="CN300" s="1"/>
       <c r="CO300" s="1"/>
     </row>
-    <row r="301" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="301" ht="16.5" spans="1:93">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -29010,7 +29598,7 @@
       <c r="CN301" s="1"/>
       <c r="CO301" s="1"/>
     </row>
-    <row r="302" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="302" ht="16.5" spans="1:93">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -29105,7 +29693,7 @@
       <c r="CN302" s="1"/>
       <c r="CO302" s="1"/>
     </row>
-    <row r="303" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="303" ht="16.5" spans="1:93">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -29200,7 +29788,7 @@
       <c r="CN303" s="1"/>
       <c r="CO303" s="1"/>
     </row>
-    <row r="304" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="304" ht="16.5" spans="1:93">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -29295,7 +29883,7 @@
       <c r="CN304" s="1"/>
       <c r="CO304" s="1"/>
     </row>
-    <row r="305" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="305" ht="16.5" spans="1:93">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -29390,7 +29978,7 @@
       <c r="CN305" s="1"/>
       <c r="CO305" s="1"/>
     </row>
-    <row r="306" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="306" ht="16.5" spans="1:93">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -29485,7 +30073,7 @@
       <c r="CN306" s="1"/>
       <c r="CO306" s="1"/>
     </row>
-    <row r="307" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="307" ht="16.5" spans="1:93">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -29580,7 +30168,7 @@
       <c r="CN307" s="1"/>
       <c r="CO307" s="1"/>
     </row>
-    <row r="308" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="308" ht="16.5" spans="1:93">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -29675,7 +30263,7 @@
       <c r="CN308" s="1"/>
       <c r="CO308" s="1"/>
     </row>
-    <row r="309" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="309" ht="16.5" spans="1:93">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -29770,7 +30358,7 @@
       <c r="CN309" s="1"/>
       <c r="CO309" s="1"/>
     </row>
-    <row r="310" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="310" ht="16.5" spans="1:93">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -29865,7 +30453,7 @@
       <c r="CN310" s="1"/>
       <c r="CO310" s="1"/>
     </row>
-    <row r="311" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="311" ht="16.5" spans="1:93">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -29960,7 +30548,7 @@
       <c r="CN311" s="1"/>
       <c r="CO311" s="1"/>
     </row>
-    <row r="312" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="312" ht="16.5" spans="1:93">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -30055,7 +30643,7 @@
       <c r="CN312" s="1"/>
       <c r="CO312" s="1"/>
     </row>
-    <row r="313" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="313" ht="16.5" spans="1:93">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -30150,7 +30738,7 @@
       <c r="CN313" s="1"/>
       <c r="CO313" s="1"/>
     </row>
-    <row r="314" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="314" ht="16.5" spans="1:93">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -30245,7 +30833,7 @@
       <c r="CN314" s="1"/>
       <c r="CO314" s="1"/>
     </row>
-    <row r="315" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="315" ht="16.5" spans="1:93">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -30340,7 +30928,7 @@
       <c r="CN315" s="1"/>
       <c r="CO315" s="1"/>
     </row>
-    <row r="316" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="316" ht="16.5" spans="1:93">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -30435,7 +31023,7 @@
       <c r="CN316" s="1"/>
       <c r="CO316" s="1"/>
     </row>
-    <row r="317" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="317" ht="16.5" spans="1:93">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -30530,7 +31118,7 @@
       <c r="CN317" s="1"/>
       <c r="CO317" s="1"/>
     </row>
-    <row r="318" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="318" ht="16.5" spans="1:93">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -30625,7 +31213,7 @@
       <c r="CN318" s="1"/>
       <c r="CO318" s="1"/>
     </row>
-    <row r="319" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="319" ht="16.5" spans="1:93">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -30720,7 +31308,7 @@
       <c r="CN319" s="1"/>
       <c r="CO319" s="1"/>
     </row>
-    <row r="320" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="320" ht="16.5" spans="1:93">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -30815,7 +31403,7 @@
       <c r="CN320" s="1"/>
       <c r="CO320" s="1"/>
     </row>
-    <row r="321" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="321" ht="16.5" spans="1:93">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -30910,7 +31498,7 @@
       <c r="CN321" s="1"/>
       <c r="CO321" s="1"/>
     </row>
-    <row r="322" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="322" ht="16.5" spans="1:93">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -31005,7 +31593,7 @@
       <c r="CN322" s="1"/>
       <c r="CO322" s="1"/>
     </row>
-    <row r="323" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="323" ht="16.5" spans="1:93">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -31100,7 +31688,7 @@
       <c r="CN323" s="1"/>
       <c r="CO323" s="1"/>
     </row>
-    <row r="324" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="324" ht="16.5" spans="1:93">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -31195,7 +31783,7 @@
       <c r="CN324" s="1"/>
       <c r="CO324" s="1"/>
     </row>
-    <row r="325" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="325" ht="16.5" spans="1:93">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -31290,7 +31878,7 @@
       <c r="CN325" s="1"/>
       <c r="CO325" s="1"/>
     </row>
-    <row r="326" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="326" ht="16.5" spans="1:93">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -31385,7 +31973,7 @@
       <c r="CN326" s="1"/>
       <c r="CO326" s="1"/>
     </row>
-    <row r="327" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="327" ht="16.5" spans="1:93">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -31480,7 +32068,7 @@
       <c r="CN327" s="1"/>
       <c r="CO327" s="1"/>
     </row>
-    <row r="328" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="328" ht="16.5" spans="1:93">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -31575,7 +32163,7 @@
       <c r="CN328" s="1"/>
       <c r="CO328" s="1"/>
     </row>
-    <row r="329" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="329" ht="16.5" spans="1:93">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -31670,7 +32258,7 @@
       <c r="CN329" s="1"/>
       <c r="CO329" s="1"/>
     </row>
-    <row r="330" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="330" ht="16.5" spans="1:93">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -31765,7 +32353,7 @@
       <c r="CN330" s="1"/>
       <c r="CO330" s="1"/>
     </row>
-    <row r="331" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="331" ht="16.5" spans="1:93">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -31860,7 +32448,7 @@
       <c r="CN331" s="1"/>
       <c r="CO331" s="1"/>
     </row>
-    <row r="332" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="332" ht="16.5" spans="1:93">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -31955,7 +32543,7 @@
       <c r="CN332" s="1"/>
       <c r="CO332" s="1"/>
     </row>
-    <row r="333" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="333" ht="16.5" spans="1:93">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -32050,7 +32638,7 @@
       <c r="CN333" s="1"/>
       <c r="CO333" s="1"/>
     </row>
-    <row r="334" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="334" ht="16.5" spans="1:93">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -32145,7 +32733,7 @@
       <c r="CN334" s="1"/>
       <c r="CO334" s="1"/>
     </row>
-    <row r="335" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="335" ht="16.5" spans="1:93">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -32240,7 +32828,7 @@
       <c r="CN335" s="1"/>
       <c r="CO335" s="1"/>
     </row>
-    <row r="336" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="336" ht="16.5" spans="1:93">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -32335,7 +32923,7 @@
       <c r="CN336" s="1"/>
       <c r="CO336" s="1"/>
     </row>
-    <row r="337" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="337" ht="16.5" spans="1:93">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -32430,7 +33018,7 @@
       <c r="CN337" s="1"/>
       <c r="CO337" s="1"/>
     </row>
-    <row r="338" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="338" ht="16.5" spans="1:93">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -32525,7 +33113,7 @@
       <c r="CN338" s="1"/>
       <c r="CO338" s="1"/>
     </row>
-    <row r="339" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="339" ht="16.5" spans="1:93">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -32620,7 +33208,7 @@
       <c r="CN339" s="1"/>
       <c r="CO339" s="1"/>
     </row>
-    <row r="340" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="340" ht="16.5" spans="1:93">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -32715,7 +33303,7 @@
       <c r="CN340" s="1"/>
       <c r="CO340" s="1"/>
     </row>
-    <row r="341" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="341" ht="16.5" spans="1:93">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -32810,7 +33398,7 @@
       <c r="CN341" s="1"/>
       <c r="CO341" s="1"/>
     </row>
-    <row r="342" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="342" ht="16.5" spans="1:93">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -32905,7 +33493,7 @@
       <c r="CN342" s="1"/>
       <c r="CO342" s="1"/>
     </row>
-    <row r="343" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="343" ht="16.5" spans="1:93">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -33000,7 +33588,7 @@
       <c r="CN343" s="1"/>
       <c r="CO343" s="1"/>
     </row>
-    <row r="344" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="344" ht="16.5" spans="1:93">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -33095,7 +33683,7 @@
       <c r="CN344" s="1"/>
       <c r="CO344" s="1"/>
     </row>
-    <row r="345" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="345" ht="16.5" spans="1:93">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -33190,7 +33778,7 @@
       <c r="CN345" s="1"/>
       <c r="CO345" s="1"/>
     </row>
-    <row r="346" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="346" ht="16.5" spans="1:93">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -33285,7 +33873,7 @@
       <c r="CN346" s="1"/>
       <c r="CO346" s="1"/>
     </row>
-    <row r="347" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="347" ht="16.5" spans="1:93">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -33380,7 +33968,7 @@
       <c r="CN347" s="1"/>
       <c r="CO347" s="1"/>
     </row>
-    <row r="348" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="348" ht="16.5" spans="1:93">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -33475,7 +34063,7 @@
       <c r="CN348" s="1"/>
       <c r="CO348" s="1"/>
     </row>
-    <row r="349" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="349" ht="16.5" spans="1:93">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -33570,7 +34158,7 @@
       <c r="CN349" s="1"/>
       <c r="CO349" s="1"/>
     </row>
-    <row r="350" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="350" ht="16.5" spans="1:93">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -33665,7 +34253,7 @@
       <c r="CN350" s="1"/>
       <c r="CO350" s="1"/>
     </row>
-    <row r="351" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="351" ht="16.5" spans="1:93">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -33760,7 +34348,7 @@
       <c r="CN351" s="1"/>
       <c r="CO351" s="1"/>
     </row>
-    <row r="352" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="352" ht="16.5" spans="1:93">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -33855,7 +34443,7 @@
       <c r="CN352" s="1"/>
       <c r="CO352" s="1"/>
     </row>
-    <row r="353" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="353" ht="16.5" spans="1:93">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -33950,7 +34538,7 @@
       <c r="CN353" s="1"/>
       <c r="CO353" s="1"/>
     </row>
-    <row r="354" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="354" ht="16.5" spans="1:93">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -34045,7 +34633,7 @@
       <c r="CN354" s="1"/>
       <c r="CO354" s="1"/>
     </row>
-    <row r="355" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="355" ht="16.5" spans="1:93">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -34140,7 +34728,7 @@
       <c r="CN355" s="1"/>
       <c r="CO355" s="1"/>
     </row>
-    <row r="356" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="356" ht="16.5" spans="1:93">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -34235,7 +34823,7 @@
       <c r="CN356" s="1"/>
       <c r="CO356" s="1"/>
     </row>
-    <row r="357" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="357" ht="16.5" spans="1:93">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -34330,7 +34918,7 @@
       <c r="CN357" s="1"/>
       <c r="CO357" s="1"/>
     </row>
-    <row r="358" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="358" ht="16.5" spans="1:93">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -34425,7 +35013,7 @@
       <c r="CN358" s="1"/>
       <c r="CO358" s="1"/>
     </row>
-    <row r="359" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="359" ht="16.5" spans="1:93">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -34520,7 +35108,7 @@
       <c r="CN359" s="1"/>
       <c r="CO359" s="1"/>
     </row>
-    <row r="360" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="360" ht="16.5" spans="1:93">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -34615,7 +35203,7 @@
       <c r="CN360" s="1"/>
       <c r="CO360" s="1"/>
     </row>
-    <row r="361" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="361" ht="16.5" spans="1:93">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -34710,7 +35298,7 @@
       <c r="CN361" s="1"/>
       <c r="CO361" s="1"/>
     </row>
-    <row r="362" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="362" ht="16.5" spans="1:93">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -34805,7 +35393,7 @@
       <c r="CN362" s="1"/>
       <c r="CO362" s="1"/>
     </row>
-    <row r="363" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="363" ht="16.5" spans="1:93">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -34900,7 +35488,7 @@
       <c r="CN363" s="1"/>
       <c r="CO363" s="1"/>
     </row>
-    <row r="364" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="364" ht="16.5" spans="1:93">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -34995,7 +35583,7 @@
       <c r="CN364" s="1"/>
       <c r="CO364" s="1"/>
     </row>
-    <row r="365" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="365" ht="16.5" spans="1:93">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -35090,7 +35678,7 @@
       <c r="CN365" s="1"/>
       <c r="CO365" s="1"/>
     </row>
-    <row r="366" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="366" ht="16.5" spans="1:93">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -35185,7 +35773,7 @@
       <c r="CN366" s="1"/>
       <c r="CO366" s="1"/>
     </row>
-    <row r="367" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="367" ht="16.5" spans="1:93">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -35280,7 +35868,7 @@
       <c r="CN367" s="1"/>
       <c r="CO367" s="1"/>
     </row>
-    <row r="368" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="368" ht="16.5" spans="1:93">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -35375,7 +35963,7 @@
       <c r="CN368" s="1"/>
       <c r="CO368" s="1"/>
     </row>
-    <row r="369" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="369" ht="16.5" spans="1:93">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -35470,7 +36058,7 @@
       <c r="CN369" s="1"/>
       <c r="CO369" s="1"/>
     </row>
-    <row r="370" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="370" ht="16.5" spans="1:93">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -35565,7 +36153,7 @@
       <c r="CN370" s="1"/>
       <c r="CO370" s="1"/>
     </row>
-    <row r="371" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="371" ht="16.5" spans="1:93">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -35660,7 +36248,7 @@
       <c r="CN371" s="1"/>
       <c r="CO371" s="1"/>
     </row>
-    <row r="372" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="372" ht="16.5" spans="1:93">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -35755,7 +36343,7 @@
       <c r="CN372" s="1"/>
       <c r="CO372" s="1"/>
     </row>
-    <row r="373" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="373" ht="16.5" spans="1:93">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -35850,7 +36438,7 @@
       <c r="CN373" s="1"/>
       <c r="CO373" s="1"/>
     </row>
-    <row r="374" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="374" ht="16.5" spans="1:93">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -35945,7 +36533,7 @@
       <c r="CN374" s="1"/>
       <c r="CO374" s="1"/>
     </row>
-    <row r="375" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="375" ht="16.5" spans="1:93">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -36040,7 +36628,7 @@
       <c r="CN375" s="1"/>
       <c r="CO375" s="1"/>
     </row>
-    <row r="376" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="376" ht="16.5" spans="1:93">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -36135,7 +36723,7 @@
       <c r="CN376" s="1"/>
       <c r="CO376" s="1"/>
     </row>
-    <row r="377" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="377" ht="16.5" spans="1:93">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -36230,7 +36818,7 @@
       <c r="CN377" s="1"/>
       <c r="CO377" s="1"/>
     </row>
-    <row r="378" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="378" ht="16.5" spans="1:93">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -36325,7 +36913,7 @@
       <c r="CN378" s="1"/>
       <c r="CO378" s="1"/>
     </row>
-    <row r="379" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="379" ht="16.5" spans="1:93">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -36420,7 +37008,7 @@
       <c r="CN379" s="1"/>
       <c r="CO379" s="1"/>
     </row>
-    <row r="380" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="380" ht="16.5" spans="1:93">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -36515,7 +37103,7 @@
       <c r="CN380" s="1"/>
       <c r="CO380" s="1"/>
     </row>
-    <row r="381" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="381" ht="16.5" spans="1:93">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -36610,7 +37198,7 @@
       <c r="CN381" s="1"/>
       <c r="CO381" s="1"/>
     </row>
-    <row r="382" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="382" ht="16.5" spans="1:93">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -36705,7 +37293,7 @@
       <c r="CN382" s="1"/>
       <c r="CO382" s="1"/>
     </row>
-    <row r="383" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="383" ht="16.5" spans="1:93">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -36800,7 +37388,7 @@
       <c r="CN383" s="1"/>
       <c r="CO383" s="1"/>
     </row>
-    <row r="384" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="384" ht="16.5" spans="1:93">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -36895,7 +37483,7 @@
       <c r="CN384" s="1"/>
       <c r="CO384" s="1"/>
     </row>
-    <row r="385" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="385" ht="16.5" spans="1:93">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -36990,7 +37578,7 @@
       <c r="CN385" s="1"/>
       <c r="CO385" s="1"/>
     </row>
-    <row r="386" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="386" ht="16.5" spans="1:93">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -37085,7 +37673,7 @@
       <c r="CN386" s="1"/>
       <c r="CO386" s="1"/>
     </row>
-    <row r="387" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="387" ht="16.5" spans="1:93">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -37180,7 +37768,7 @@
       <c r="CN387" s="1"/>
       <c r="CO387" s="1"/>
     </row>
-    <row r="388" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="388" ht="16.5" spans="1:93">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -37275,7 +37863,7 @@
       <c r="CN388" s="1"/>
       <c r="CO388" s="1"/>
     </row>
-    <row r="389" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="389" ht="16.5" spans="1:93">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -37370,7 +37958,7 @@
       <c r="CN389" s="1"/>
       <c r="CO389" s="1"/>
     </row>
-    <row r="390" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="390" ht="16.5" spans="1:93">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -37465,7 +38053,7 @@
       <c r="CN390" s="1"/>
       <c r="CO390" s="1"/>
     </row>
-    <row r="391" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="391" ht="16.5" spans="1:93">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -37560,7 +38148,7 @@
       <c r="CN391" s="1"/>
       <c r="CO391" s="1"/>
     </row>
-    <row r="392" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="392" ht="16.5" spans="1:93">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -37655,7 +38243,7 @@
       <c r="CN392" s="1"/>
       <c r="CO392" s="1"/>
     </row>
-    <row r="393" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="393" ht="16.5" spans="1:93">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -37750,7 +38338,7 @@
       <c r="CN393" s="1"/>
       <c r="CO393" s="1"/>
     </row>
-    <row r="394" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="394" ht="16.5" spans="1:93">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -37845,7 +38433,7 @@
       <c r="CN394" s="1"/>
       <c r="CO394" s="1"/>
     </row>
-    <row r="395" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="395" ht="16.5" spans="1:93">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -37940,7 +38528,7 @@
       <c r="CN395" s="1"/>
       <c r="CO395" s="1"/>
     </row>
-    <row r="396" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="396" ht="16.5" spans="1:93">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -38035,7 +38623,7 @@
       <c r="CN396" s="1"/>
       <c r="CO396" s="1"/>
     </row>
-    <row r="397" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="397" ht="16.5" spans="1:93">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -38130,7 +38718,7 @@
       <c r="CN397" s="1"/>
       <c r="CO397" s="1"/>
     </row>
-    <row r="398" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="398" ht="16.5" spans="1:93">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -38225,7 +38813,7 @@
       <c r="CN398" s="1"/>
       <c r="CO398" s="1"/>
     </row>
-    <row r="399" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="399" ht="16.5" spans="1:93">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -38320,7 +38908,7 @@
       <c r="CN399" s="1"/>
       <c r="CO399" s="1"/>
     </row>
-    <row r="400" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="400" ht="16.5" spans="1:93">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -38415,7 +39003,7 @@
       <c r="CN400" s="1"/>
       <c r="CO400" s="1"/>
     </row>
-    <row r="401" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="401" ht="16.5" spans="1:93">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -38510,7 +39098,7 @@
       <c r="CN401" s="1"/>
       <c r="CO401" s="1"/>
     </row>
-    <row r="402" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="402" ht="16.5" spans="1:93">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -38605,7 +39193,7 @@
       <c r="CN402" s="1"/>
       <c r="CO402" s="1"/>
     </row>
-    <row r="403" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="403" ht="16.5" spans="1:93">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -38700,7 +39288,7 @@
       <c r="CN403" s="1"/>
       <c r="CO403" s="1"/>
     </row>
-    <row r="404" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="404" ht="16.5" spans="1:93">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -38795,7 +39383,7 @@
       <c r="CN404" s="1"/>
       <c r="CO404" s="1"/>
     </row>
-    <row r="405" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="405" ht="16.5" spans="1:93">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -38890,7 +39478,7 @@
       <c r="CN405" s="1"/>
       <c r="CO405" s="1"/>
     </row>
-    <row r="406" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="406" ht="16.5" spans="1:93">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -38985,7 +39573,7 @@
       <c r="CN406" s="1"/>
       <c r="CO406" s="1"/>
     </row>
-    <row r="407" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="407" ht="16.5" spans="1:93">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -39080,7 +39668,7 @@
       <c r="CN407" s="1"/>
       <c r="CO407" s="1"/>
     </row>
-    <row r="408" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="408" ht="16.5" spans="1:93">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -39175,7 +39763,7 @@
       <c r="CN408" s="1"/>
       <c r="CO408" s="1"/>
     </row>
-    <row r="409" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="409" ht="16.5" spans="1:93">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -39270,7 +39858,7 @@
       <c r="CN409" s="1"/>
       <c r="CO409" s="1"/>
     </row>
-    <row r="410" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="410" ht="16.5" spans="1:93">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -39365,7 +39953,7 @@
       <c r="CN410" s="1"/>
       <c r="CO410" s="1"/>
     </row>
-    <row r="411" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="411" ht="16.5" spans="1:93">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -39460,7 +40048,7 @@
       <c r="CN411" s="1"/>
       <c r="CO411" s="1"/>
     </row>
-    <row r="412" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="412" ht="16.5" spans="1:93">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -39555,7 +40143,7 @@
       <c r="CN412" s="1"/>
       <c r="CO412" s="1"/>
     </row>
-    <row r="413" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="413" ht="16.5" spans="1:93">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -39650,7 +40238,7 @@
       <c r="CN413" s="1"/>
       <c r="CO413" s="1"/>
     </row>
-    <row r="414" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="414" ht="16.5" spans="1:93">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -39745,7 +40333,7 @@
       <c r="CN414" s="1"/>
       <c r="CO414" s="1"/>
     </row>
-    <row r="415" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="415" ht="16.5" spans="1:93">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -39840,7 +40428,7 @@
       <c r="CN415" s="1"/>
       <c r="CO415" s="1"/>
     </row>
-    <row r="416" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="416" ht="16.5" spans="1:93">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -39935,7 +40523,7 @@
       <c r="CN416" s="1"/>
       <c r="CO416" s="1"/>
     </row>
-    <row r="417" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="417" ht="16.5" spans="1:93">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -40030,7 +40618,7 @@
       <c r="CN417" s="1"/>
       <c r="CO417" s="1"/>
     </row>
-    <row r="418" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="418" ht="16.5" spans="1:93">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -40125,7 +40713,7 @@
       <c r="CN418" s="1"/>
       <c r="CO418" s="1"/>
     </row>
-    <row r="419" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="419" ht="16.5" spans="1:93">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -40220,7 +40808,7 @@
       <c r="CN419" s="1"/>
       <c r="CO419" s="1"/>
     </row>
-    <row r="420" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="420" ht="16.5" spans="1:93">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -40315,7 +40903,7 @@
       <c r="CN420" s="1"/>
       <c r="CO420" s="1"/>
     </row>
-    <row r="421" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="421" ht="16.5" spans="1:93">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -40410,7 +40998,7 @@
       <c r="CN421" s="1"/>
       <c r="CO421" s="1"/>
     </row>
-    <row r="422" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="422" ht="16.5" spans="1:93">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -40505,7 +41093,7 @@
       <c r="CN422" s="1"/>
       <c r="CO422" s="1"/>
     </row>
-    <row r="423" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="423" ht="16.5" spans="1:93">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -40600,7 +41188,7 @@
       <c r="CN423" s="1"/>
       <c r="CO423" s="1"/>
     </row>
-    <row r="424" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="424" ht="16.5" spans="1:93">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -40695,7 +41283,7 @@
       <c r="CN424" s="1"/>
       <c r="CO424" s="1"/>
     </row>
-    <row r="425" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="425" ht="16.5" spans="1:93">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -40790,7 +41378,7 @@
       <c r="CN425" s="1"/>
       <c r="CO425" s="1"/>
     </row>
-    <row r="426" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="426" ht="16.5" spans="1:93">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -40885,7 +41473,7 @@
       <c r="CN426" s="1"/>
       <c r="CO426" s="1"/>
     </row>
-    <row r="427" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="427" ht="16.5" spans="1:93">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -40980,7 +41568,7 @@
       <c r="CN427" s="1"/>
       <c r="CO427" s="1"/>
     </row>
-    <row r="428" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="428" ht="16.5" spans="1:93">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -41075,7 +41663,7 @@
       <c r="CN428" s="1"/>
       <c r="CO428" s="1"/>
     </row>
-    <row r="429" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="429" ht="16.5" spans="1:93">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -41170,7 +41758,7 @@
       <c r="CN429" s="1"/>
       <c r="CO429" s="1"/>
     </row>
-    <row r="430" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="430" ht="16.5" spans="1:93">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -41265,7 +41853,7 @@
       <c r="CN430" s="1"/>
       <c r="CO430" s="1"/>
     </row>
-    <row r="431" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="431" ht="16.5" spans="1:93">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -41360,7 +41948,7 @@
       <c r="CN431" s="1"/>
       <c r="CO431" s="1"/>
     </row>
-    <row r="432" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="432" ht="16.5" spans="1:93">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -41455,7 +42043,7 @@
       <c r="CN432" s="1"/>
       <c r="CO432" s="1"/>
     </row>
-    <row r="433" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="433" ht="16.5" spans="1:93">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -41550,7 +42138,7 @@
       <c r="CN433" s="1"/>
       <c r="CO433" s="1"/>
     </row>
-    <row r="434" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="434" ht="16.5" spans="1:93">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -41645,7 +42233,7 @@
       <c r="CN434" s="1"/>
       <c r="CO434" s="1"/>
     </row>
-    <row r="435" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="435" ht="16.5" spans="1:93">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -41740,7 +42328,7 @@
       <c r="CN435" s="1"/>
       <c r="CO435" s="1"/>
     </row>
-    <row r="436" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="436" ht="16.5" spans="1:93">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -41835,7 +42423,7 @@
       <c r="CN436" s="1"/>
       <c r="CO436" s="1"/>
     </row>
-    <row r="437" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="437" ht="16.5" spans="1:93">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -41930,7 +42518,7 @@
       <c r="CN437" s="1"/>
       <c r="CO437" s="1"/>
     </row>
-    <row r="438" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="438" ht="16.5" spans="1:93">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -42025,7 +42613,7 @@
       <c r="CN438" s="1"/>
       <c r="CO438" s="1"/>
     </row>
-    <row r="439" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="439" ht="16.5" spans="1:93">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -42120,7 +42708,7 @@
       <c r="CN439" s="1"/>
       <c r="CO439" s="1"/>
     </row>
-    <row r="440" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="440" ht="16.5" spans="1:93">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -42215,7 +42803,7 @@
       <c r="CN440" s="1"/>
       <c r="CO440" s="1"/>
     </row>
-    <row r="441" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="441" ht="16.5" spans="1:93">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -42310,7 +42898,7 @@
       <c r="CN441" s="1"/>
       <c r="CO441" s="1"/>
     </row>
-    <row r="442" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="442" ht="16.5" spans="1:93">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -42405,7 +42993,7 @@
       <c r="CN442" s="1"/>
       <c r="CO442" s="1"/>
     </row>
-    <row r="443" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="443" ht="16.5" spans="1:93">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -42500,7 +43088,7 @@
       <c r="CN443" s="1"/>
       <c r="CO443" s="1"/>
     </row>
-    <row r="444" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="444" ht="16.5" spans="1:93">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -42595,7 +43183,7 @@
       <c r="CN444" s="1"/>
       <c r="CO444" s="1"/>
     </row>
-    <row r="445" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="445" ht="16.5" spans="1:93">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -42690,7 +43278,7 @@
       <c r="CN445" s="1"/>
       <c r="CO445" s="1"/>
     </row>
-    <row r="446" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="446" ht="16.5" spans="1:93">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -42785,7 +43373,7 @@
       <c r="CN446" s="1"/>
       <c r="CO446" s="1"/>
     </row>
-    <row r="447" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="447" ht="16.5" spans="1:93">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -42880,7 +43468,7 @@
       <c r="CN447" s="1"/>
       <c r="CO447" s="1"/>
     </row>
-    <row r="448" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="448" ht="16.5" spans="1:93">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -42975,7 +43563,7 @@
       <c r="CN448" s="1"/>
       <c r="CO448" s="1"/>
     </row>
-    <row r="449" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="449" ht="16.5" spans="1:93">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -43070,7 +43658,7 @@
       <c r="CN449" s="1"/>
       <c r="CO449" s="1"/>
     </row>
-    <row r="450" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="450" ht="16.5" spans="1:93">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -43165,7 +43753,7 @@
       <c r="CN450" s="1"/>
       <c r="CO450" s="1"/>
     </row>
-    <row r="451" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="451" ht="16.5" spans="1:93">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -43260,7 +43848,7 @@
       <c r="CN451" s="1"/>
       <c r="CO451" s="1"/>
     </row>
-    <row r="452" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="452" ht="16.5" spans="1:93">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -43355,7 +43943,7 @@
       <c r="CN452" s="1"/>
       <c r="CO452" s="1"/>
     </row>
-    <row r="453" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="453" ht="16.5" spans="1:93">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -43450,7 +44038,7 @@
       <c r="CN453" s="1"/>
       <c r="CO453" s="1"/>
     </row>
-    <row r="454" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="454" ht="16.5" spans="1:93">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -43545,7 +44133,7 @@
       <c r="CN454" s="1"/>
       <c r="CO454" s="1"/>
     </row>
-    <row r="455" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="455" ht="16.5" spans="1:93">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -43640,7 +44228,7 @@
       <c r="CN455" s="1"/>
       <c r="CO455" s="1"/>
     </row>
-    <row r="456" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="456" ht="16.5" spans="1:93">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -43735,7 +44323,7 @@
       <c r="CN456" s="1"/>
       <c r="CO456" s="1"/>
     </row>
-    <row r="457" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="457" ht="16.5" spans="1:93">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -43830,7 +44418,7 @@
       <c r="CN457" s="1"/>
       <c r="CO457" s="1"/>
     </row>
-    <row r="458" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="458" ht="16.5" spans="1:93">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -43925,7 +44513,7 @@
       <c r="CN458" s="1"/>
       <c r="CO458" s="1"/>
     </row>
-    <row r="459" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="459" ht="16.5" spans="1:93">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -44020,7 +44608,7 @@
       <c r="CN459" s="1"/>
       <c r="CO459" s="1"/>
     </row>
-    <row r="460" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="460" ht="16.5" spans="1:93">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -44115,7 +44703,7 @@
       <c r="CN460" s="1"/>
       <c r="CO460" s="1"/>
     </row>
-    <row r="461" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="461" ht="16.5" spans="1:93">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -44210,7 +44798,7 @@
       <c r="CN461" s="1"/>
       <c r="CO461" s="1"/>
     </row>
-    <row r="462" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="462" ht="16.5" spans="1:93">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -44305,7 +44893,7 @@
       <c r="CN462" s="1"/>
       <c r="CO462" s="1"/>
     </row>
-    <row r="463" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="463" ht="16.5" spans="1:93">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -44400,7 +44988,7 @@
       <c r="CN463" s="1"/>
       <c r="CO463" s="1"/>
     </row>
-    <row r="464" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="464" ht="16.5" spans="1:93">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -44495,7 +45083,7 @@
       <c r="CN464" s="1"/>
       <c r="CO464" s="1"/>
     </row>
-    <row r="465" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="465" ht="16.5" spans="1:93">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -44590,7 +45178,7 @@
       <c r="CN465" s="1"/>
       <c r="CO465" s="1"/>
     </row>
-    <row r="466" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="466" ht="16.5" spans="1:93">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -44685,7 +45273,7 @@
       <c r="CN466" s="1"/>
       <c r="CO466" s="1"/>
     </row>
-    <row r="467" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="467" ht="16.5" spans="1:93">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -44780,7 +45368,7 @@
       <c r="CN467" s="1"/>
       <c r="CO467" s="1"/>
     </row>
-    <row r="468" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="468" ht="16.5" spans="1:93">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -44875,7 +45463,7 @@
       <c r="CN468" s="1"/>
       <c r="CO468" s="1"/>
     </row>
-    <row r="469" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="469" ht="16.5" spans="1:93">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -44970,7 +45558,7 @@
       <c r="CN469" s="1"/>
       <c r="CO469" s="1"/>
     </row>
-    <row r="470" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="470" ht="16.5" spans="1:93">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -45065,7 +45653,7 @@
       <c r="CN470" s="1"/>
       <c r="CO470" s="1"/>
     </row>
-    <row r="471" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="471" ht="16.5" spans="1:93">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -45160,7 +45748,7 @@
       <c r="CN471" s="1"/>
       <c r="CO471" s="1"/>
     </row>
-    <row r="472" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="472" ht="16.5" spans="1:93">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -45255,7 +45843,7 @@
       <c r="CN472" s="1"/>
       <c r="CO472" s="1"/>
     </row>
-    <row r="473" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="473" ht="16.5" spans="1:93">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -45350,7 +45938,7 @@
       <c r="CN473" s="1"/>
       <c r="CO473" s="1"/>
     </row>
-    <row r="474" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="474" ht="16.5" spans="1:93">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -45445,7 +46033,7 @@
       <c r="CN474" s="1"/>
       <c r="CO474" s="1"/>
     </row>
-    <row r="475" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="475" ht="16.5" spans="1:93">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -45540,7 +46128,7 @@
       <c r="CN475" s="1"/>
       <c r="CO475" s="1"/>
     </row>
-    <row r="476" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="476" ht="16.5" spans="1:93">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -45635,7 +46223,7 @@
       <c r="CN476" s="1"/>
       <c r="CO476" s="1"/>
     </row>
-    <row r="477" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="477" ht="16.5" spans="1:93">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -45730,7 +46318,7 @@
       <c r="CN477" s="1"/>
       <c r="CO477" s="1"/>
     </row>
-    <row r="478" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="478" ht="16.5" spans="1:93">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -45825,7 +46413,7 @@
       <c r="CN478" s="1"/>
       <c r="CO478" s="1"/>
     </row>
-    <row r="479" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="479" ht="16.5" spans="1:93">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -45920,7 +46508,7 @@
       <c r="CN479" s="1"/>
       <c r="CO479" s="1"/>
     </row>
-    <row r="480" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="480" ht="16.5" spans="1:93">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -46015,7 +46603,7 @@
       <c r="CN480" s="1"/>
       <c r="CO480" s="1"/>
     </row>
-    <row r="481" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="481" ht="16.5" spans="1:93">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -46110,7 +46698,7 @@
       <c r="CN481" s="1"/>
       <c r="CO481" s="1"/>
     </row>
-    <row r="482" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="482" ht="16.5" spans="1:93">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -46205,7 +46793,7 @@
       <c r="CN482" s="1"/>
       <c r="CO482" s="1"/>
     </row>
-    <row r="483" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="483" ht="16.5" spans="1:93">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -46300,7 +46888,7 @@
       <c r="CN483" s="1"/>
       <c r="CO483" s="1"/>
     </row>
-    <row r="484" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="484" ht="16.5" spans="1:93">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -46395,7 +46983,7 @@
       <c r="CN484" s="1"/>
       <c r="CO484" s="1"/>
     </row>
-    <row r="485" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="485" ht="16.5" spans="1:93">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -46490,7 +47078,7 @@
       <c r="CN485" s="1"/>
       <c r="CO485" s="1"/>
     </row>
-    <row r="486" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="486" ht="16.5" spans="1:93">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -46585,7 +47173,7 @@
       <c r="CN486" s="1"/>
       <c r="CO486" s="1"/>
     </row>
-    <row r="487" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="487" ht="16.5" spans="1:93">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -46680,7 +47268,7 @@
       <c r="CN487" s="1"/>
       <c r="CO487" s="1"/>
     </row>
-    <row r="488" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="488" ht="16.5" spans="1:93">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -46775,7 +47363,7 @@
       <c r="CN488" s="1"/>
       <c r="CO488" s="1"/>
     </row>
-    <row r="489" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="489" ht="16.5" spans="1:93">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -46870,7 +47458,7 @@
       <c r="CN489" s="1"/>
       <c r="CO489" s="1"/>
     </row>
-    <row r="490" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="490" ht="16.5" spans="1:93">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -46965,7 +47553,7 @@
       <c r="CN490" s="1"/>
       <c r="CO490" s="1"/>
     </row>
-    <row r="491" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="491" ht="16.5" spans="1:93">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -47060,7 +47648,7 @@
       <c r="CN491" s="1"/>
       <c r="CO491" s="1"/>
     </row>
-    <row r="492" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="492" ht="16.5" spans="1:93">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -47155,7 +47743,7 @@
       <c r="CN492" s="1"/>
       <c r="CO492" s="1"/>
     </row>
-    <row r="493" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="493" ht="16.5" spans="1:93">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -47250,7 +47838,7 @@
       <c r="CN493" s="1"/>
       <c r="CO493" s="1"/>
     </row>
-    <row r="494" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="494" ht="16.5" spans="1:93">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -47345,7 +47933,7 @@
       <c r="CN494" s="1"/>
       <c r="CO494" s="1"/>
     </row>
-    <row r="495" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="495" ht="16.5" spans="1:93">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -47440,7 +48028,7 @@
       <c r="CN495" s="1"/>
       <c r="CO495" s="1"/>
     </row>
-    <row r="496" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="496" ht="16.5" spans="1:93">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -47535,7 +48123,7 @@
       <c r="CN496" s="1"/>
       <c r="CO496" s="1"/>
     </row>
-    <row r="497" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="497" ht="16.5" spans="1:93">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -47630,7 +48218,7 @@
       <c r="CN497" s="1"/>
       <c r="CO497" s="1"/>
     </row>
-    <row r="498" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="498" ht="16.5" spans="1:93">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -47725,7 +48313,7 @@
       <c r="CN498" s="1"/>
       <c r="CO498" s="1"/>
     </row>
-    <row r="499" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="499" ht="16.5" spans="1:93">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -47820,7 +48408,7 @@
       <c r="CN499" s="1"/>
       <c r="CO499" s="1"/>
     </row>
-    <row r="500" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="500" ht="16.5" spans="1:93">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -47915,7 +48503,7 @@
       <c r="CN500" s="1"/>
       <c r="CO500" s="1"/>
     </row>
-    <row r="501" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="501" ht="16.5" spans="1:93">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -48010,7 +48598,7 @@
       <c r="CN501" s="1"/>
       <c r="CO501" s="1"/>
     </row>
-    <row r="502" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="502" ht="16.5" spans="1:93">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -48105,7 +48693,7 @@
       <c r="CN502" s="1"/>
       <c r="CO502" s="1"/>
     </row>
-    <row r="503" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="503" ht="16.5" spans="1:93">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -48200,7 +48788,7 @@
       <c r="CN503" s="1"/>
       <c r="CO503" s="1"/>
     </row>
-    <row r="504" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="504" ht="16.5" spans="1:93">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -48295,7 +48883,7 @@
       <c r="CN504" s="1"/>
       <c r="CO504" s="1"/>
     </row>
-    <row r="505" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="505" ht="16.5" spans="1:93">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -48390,7 +48978,7 @@
       <c r="CN505" s="1"/>
       <c r="CO505" s="1"/>
     </row>
-    <row r="506" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="506" ht="16.5" spans="1:93">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -48485,7 +49073,7 @@
       <c r="CN506" s="1"/>
       <c r="CO506" s="1"/>
     </row>
-    <row r="507" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="507" ht="16.5" spans="1:93">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -48580,7 +49168,7 @@
       <c r="CN507" s="1"/>
       <c r="CO507" s="1"/>
     </row>
-    <row r="508" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="508" ht="16.5" spans="1:93">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -48675,7 +49263,7 @@
       <c r="CN508" s="1"/>
       <c r="CO508" s="1"/>
     </row>
-    <row r="509" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="509" ht="16.5" spans="1:93">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -48770,7 +49358,7 @@
       <c r="CN509" s="1"/>
       <c r="CO509" s="1"/>
     </row>
-    <row r="510" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="510" ht="16.5" spans="1:93">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -48865,7 +49453,7 @@
       <c r="CN510" s="1"/>
       <c r="CO510" s="1"/>
     </row>
-    <row r="511" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="511" ht="16.5" spans="1:93">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -48960,7 +49548,7 @@
       <c r="CN511" s="1"/>
       <c r="CO511" s="1"/>
     </row>
-    <row r="512" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="512" ht="16.5" spans="1:93">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -49055,7 +49643,7 @@
       <c r="CN512" s="1"/>
       <c r="CO512" s="1"/>
     </row>
-    <row r="513" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="513" ht="16.5" spans="1:93">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -49150,7 +49738,7 @@
       <c r="CN513" s="1"/>
       <c r="CO513" s="1"/>
     </row>
-    <row r="514" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="514" ht="16.5" spans="1:93">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -49245,7 +49833,7 @@
       <c r="CN514" s="1"/>
       <c r="CO514" s="1"/>
     </row>
-    <row r="515" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="515" ht="16.5" spans="1:93">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -49340,7 +49928,7 @@
       <c r="CN515" s="1"/>
       <c r="CO515" s="1"/>
     </row>
-    <row r="516" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="516" ht="16.5" spans="1:93">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -49435,7 +50023,7 @@
       <c r="CN516" s="1"/>
       <c r="CO516" s="1"/>
     </row>
-    <row r="517" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="517" ht="16.5" spans="1:93">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -49530,7 +50118,7 @@
       <c r="CN517" s="1"/>
       <c r="CO517" s="1"/>
     </row>
-    <row r="518" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="518" ht="16.5" spans="1:93">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -49625,7 +50213,7 @@
       <c r="CN518" s="1"/>
       <c r="CO518" s="1"/>
     </row>
-    <row r="519" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="519" ht="16.5" spans="1:93">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -49720,7 +50308,7 @@
       <c r="CN519" s="1"/>
       <c r="CO519" s="1"/>
     </row>
-    <row r="520" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="520" ht="16.5" spans="1:93">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -49815,7 +50403,7 @@
       <c r="CN520" s="1"/>
       <c r="CO520" s="1"/>
     </row>
-    <row r="521" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="521" ht="16.5" spans="1:93">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -49910,7 +50498,7 @@
       <c r="CN521" s="1"/>
       <c r="CO521" s="1"/>
     </row>
-    <row r="522" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="522" ht="16.5" spans="1:93">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -50005,7 +50593,7 @@
       <c r="CN522" s="1"/>
       <c r="CO522" s="1"/>
     </row>
-    <row r="523" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="523" ht="16.5" spans="1:93">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -50100,7 +50688,7 @@
       <c r="CN523" s="1"/>
       <c r="CO523" s="1"/>
     </row>
-    <row r="524" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="524" ht="16.5" spans="1:93">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -50195,7 +50783,7 @@
       <c r="CN524" s="1"/>
       <c r="CO524" s="1"/>
     </row>
-    <row r="525" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="525" ht="16.5" spans="1:93">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -50290,7 +50878,7 @@
       <c r="CN525" s="1"/>
       <c r="CO525" s="1"/>
     </row>
-    <row r="526" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="526" ht="16.5" spans="1:93">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -50385,7 +50973,7 @@
       <c r="CN526" s="1"/>
       <c r="CO526" s="1"/>
     </row>
-    <row r="527" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="527" ht="16.5" spans="1:93">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -50480,7 +51068,7 @@
       <c r="CN527" s="1"/>
       <c r="CO527" s="1"/>
     </row>
-    <row r="528" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="528" ht="16.5" spans="1:93">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -50575,7 +51163,7 @@
       <c r="CN528" s="1"/>
       <c r="CO528" s="1"/>
     </row>
-    <row r="529" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="529" ht="16.5" spans="1:93">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -50670,7 +51258,7 @@
       <c r="CN529" s="1"/>
       <c r="CO529" s="1"/>
     </row>
-    <row r="530" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="530" ht="16.5" spans="1:93">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -50765,7 +51353,7 @@
       <c r="CN530" s="1"/>
       <c r="CO530" s="1"/>
     </row>
-    <row r="531" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="531" ht="16.5" spans="1:93">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -50860,7 +51448,7 @@
       <c r="CN531" s="1"/>
       <c r="CO531" s="1"/>
     </row>
-    <row r="532" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="532" ht="16.5" spans="1:93">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -50955,7 +51543,7 @@
       <c r="CN532" s="1"/>
       <c r="CO532" s="1"/>
     </row>
-    <row r="533" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="533" ht="16.5" spans="1:93">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -51050,7 +51638,7 @@
       <c r="CN533" s="1"/>
       <c r="CO533" s="1"/>
     </row>
-    <row r="534" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="534" ht="16.5" spans="1:93">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -51145,7 +51733,7 @@
       <c r="CN534" s="1"/>
       <c r="CO534" s="1"/>
     </row>
-    <row r="535" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="535" ht="16.5" spans="1:93">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -51240,7 +51828,7 @@
       <c r="CN535" s="1"/>
       <c r="CO535" s="1"/>
     </row>
-    <row r="536" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="536" ht="16.5" spans="1:93">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -51335,7 +51923,7 @@
       <c r="CN536" s="1"/>
       <c r="CO536" s="1"/>
     </row>
-    <row r="537" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="537" ht="16.5" spans="1:93">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -51430,7 +52018,7 @@
       <c r="CN537" s="1"/>
       <c r="CO537" s="1"/>
     </row>
-    <row r="538" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="538" ht="16.5" spans="1:93">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -51525,7 +52113,7 @@
       <c r="CN538" s="1"/>
       <c r="CO538" s="1"/>
     </row>
-    <row r="539" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="539" ht="16.5" spans="1:93">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -51620,7 +52208,7 @@
       <c r="CN539" s="1"/>
       <c r="CO539" s="1"/>
     </row>
-    <row r="540" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="540" ht="16.5" spans="1:93">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -51715,7 +52303,7 @@
       <c r="CN540" s="1"/>
       <c r="CO540" s="1"/>
     </row>
-    <row r="541" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="541" ht="16.5" spans="1:93">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -51810,7 +52398,7 @@
       <c r="CN541" s="1"/>
       <c r="CO541" s="1"/>
     </row>
-    <row r="542" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="542" ht="16.5" spans="1:93">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -51905,7 +52493,7 @@
       <c r="CN542" s="1"/>
       <c r="CO542" s="1"/>
     </row>
-    <row r="543" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="543" ht="16.5" spans="1:93">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -52000,7 +52588,7 @@
       <c r="CN543" s="1"/>
       <c r="CO543" s="1"/>
     </row>
-    <row r="544" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="544" ht="16.5" spans="1:93">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -52095,7 +52683,7 @@
       <c r="CN544" s="1"/>
       <c r="CO544" s="1"/>
     </row>
-    <row r="545" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="545" ht="16.5" spans="1:93">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -52190,7 +52778,7 @@
       <c r="CN545" s="1"/>
       <c r="CO545" s="1"/>
     </row>
-    <row r="546" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="546" ht="16.5" spans="1:93">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -52285,7 +52873,7 @@
       <c r="CN546" s="1"/>
       <c r="CO546" s="1"/>
     </row>
-    <row r="547" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="547" ht="16.5" spans="1:93">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -52380,7 +52968,7 @@
       <c r="CN547" s="1"/>
       <c r="CO547" s="1"/>
     </row>
-    <row r="548" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="548" ht="16.5" spans="1:93">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -52475,7 +53063,7 @@
       <c r="CN548" s="1"/>
       <c r="CO548" s="1"/>
     </row>
-    <row r="549" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="549" ht="16.5" spans="1:93">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -52570,7 +53158,7 @@
       <c r="CN549" s="1"/>
       <c r="CO549" s="1"/>
     </row>
-    <row r="550" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="550" ht="16.5" spans="1:93">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -52665,7 +53253,7 @@
       <c r="CN550" s="1"/>
       <c r="CO550" s="1"/>
     </row>
-    <row r="551" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="551" ht="16.5" spans="1:93">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -52760,7 +53348,7 @@
       <c r="CN551" s="1"/>
       <c r="CO551" s="1"/>
     </row>
-    <row r="552" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="552" ht="16.5" spans="1:93">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -52855,7 +53443,7 @@
       <c r="CN552" s="1"/>
       <c r="CO552" s="1"/>
     </row>
-    <row r="553" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="553" ht="16.5" spans="1:93">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -52950,7 +53538,7 @@
       <c r="CN553" s="1"/>
       <c r="CO553" s="1"/>
     </row>
-    <row r="554" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="554" ht="16.5" spans="1:93">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -53045,7 +53633,7 @@
       <c r="CN554" s="1"/>
       <c r="CO554" s="1"/>
     </row>
-    <row r="555" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="555" ht="16.5" spans="1:93">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -53140,7 +53728,7 @@
       <c r="CN555" s="1"/>
       <c r="CO555" s="1"/>
     </row>
-    <row r="556" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="556" ht="16.5" spans="1:93">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -53235,7 +53823,7 @@
       <c r="CN556" s="1"/>
       <c r="CO556" s="1"/>
     </row>
-    <row r="557" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="557" ht="16.5" spans="1:93">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -53330,7 +53918,7 @@
       <c r="CN557" s="1"/>
       <c r="CO557" s="1"/>
     </row>
-    <row r="558" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="558" ht="16.5" spans="1:93">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -53425,7 +54013,7 @@
       <c r="CN558" s="1"/>
       <c r="CO558" s="1"/>
     </row>
-    <row r="559" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="559" ht="16.5" spans="1:93">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -53520,7 +54108,7 @@
       <c r="CN559" s="1"/>
       <c r="CO559" s="1"/>
     </row>
-    <row r="560" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="560" ht="16.5" spans="1:93">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -53615,7 +54203,7 @@
       <c r="CN560" s="1"/>
       <c r="CO560" s="1"/>
     </row>
-    <row r="561" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="561" ht="16.5" spans="1:93">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -53710,7 +54298,7 @@
       <c r="CN561" s="1"/>
       <c r="CO561" s="1"/>
     </row>
-    <row r="562" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="562" ht="16.5" spans="1:93">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -53805,7 +54393,7 @@
       <c r="CN562" s="1"/>
       <c r="CO562" s="1"/>
     </row>
-    <row r="563" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="563" ht="16.5" spans="1:93">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -53900,7 +54488,7 @@
       <c r="CN563" s="1"/>
       <c r="CO563" s="1"/>
     </row>
-    <row r="564" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="564" ht="16.5" spans="1:93">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -53995,7 +54583,7 @@
       <c r="CN564" s="1"/>
       <c r="CO564" s="1"/>
     </row>
-    <row r="565" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="565" ht="16.5" spans="1:93">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -54090,7 +54678,7 @@
       <c r="CN565" s="1"/>
       <c r="CO565" s="1"/>
     </row>
-    <row r="566" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="566" ht="16.5" spans="1:93">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -54185,7 +54773,7 @@
       <c r="CN566" s="1"/>
       <c r="CO566" s="1"/>
     </row>
-    <row r="567" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="567" ht="16.5" spans="1:93">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -54280,7 +54868,7 @@
       <c r="CN567" s="1"/>
       <c r="CO567" s="1"/>
     </row>
-    <row r="568" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="568" ht="16.5" spans="1:93">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -54375,7 +54963,7 @@
       <c r="CN568" s="1"/>
       <c r="CO568" s="1"/>
     </row>
-    <row r="569" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="569" ht="16.5" spans="1:93">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -54470,7 +55058,7 @@
       <c r="CN569" s="1"/>
       <c r="CO569" s="1"/>
     </row>
-    <row r="570" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="570" ht="16.5" spans="1:93">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -54565,7 +55153,7 @@
       <c r="CN570" s="1"/>
       <c r="CO570" s="1"/>
     </row>
-    <row r="571" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="571" ht="16.5" spans="1:93">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -54660,7 +55248,7 @@
       <c r="CN571" s="1"/>
       <c r="CO571" s="1"/>
     </row>
-    <row r="572" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="572" ht="16.5" spans="1:93">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -54755,7 +55343,7 @@
       <c r="CN572" s="1"/>
       <c r="CO572" s="1"/>
     </row>
-    <row r="573" spans="1:93" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="573" ht="16.5" spans="1:93">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -54851,8 +55439,8 @@
       <c r="CO573" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>